--- a/Covid_19_Dataset_and_References/References/53.xlsx
+++ b/Covid_19_Dataset_and_References/References/53.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="119">
   <si>
     <t>Doi</t>
   </si>
@@ -524,6 +524,137 @@
   </si>
   <si>
     <t>[Alexander%Muacevic%NULL%0,  John R%Adler%NULL%0,  Ramez%Kouzy%NULL%2,  Ramez%Kouzy%NULL%0,  Joseph%Abi Jaoude%NULL%1,  Afif%Kraitem%NULL%1,  Molly B%El Alam%NULL%1,  Basil%Karam%NULL%1,  Elio%Adib%NULL%1,  Jabra%Zarka%NULL%1,  Cindy%Traboulsi%NULL%1,  Elie W%Akl%NULL%1,  Khalil%Baddour%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Internet analytics are increasingly being integrated into public health regulation.
+ One specific application is to monitor compliance of website and social media activity with respect to jurisdictional regulations.
+ These data may then identify breaches of compliance and inform disciplinary actions.
+ Our study aimed to evaluate the novel use of internet analytics by a Canadian chiropractic regulator to determine their registrants compliance with three regulations related to specific health conditions, pregnancy conditions and most recently, claims of improved immunity during the COVID-19 crisis.
+Methods
+id="Par2"&gt;A customized internet search tool (Market Review Tool, MRT) was used by the College of Chiropractors of British Columbia (CCBC), Canada to audit registrants websites and social media activity.
+ The audits extracted words whose use within specific contexts is not permitted under CCBC guidelines.
+ The MRT was first used in October of 2018 to identify words related to specific health conditions.
+ The MRT was again used in December 2019 for words related to pregnancy and most recently in March 2020 for words related to COVID-19. In these three MRT applications, potential cases of word misuse were evaluated by the regulator who then notified the practitioner to comply with existing regulations by a specific date.
+ The MRT was then used on that date to determine compliance.
+ Those found to be non-compliant were referred to the regulator’s inquiry committee.
+ We mapped this process and reported the outcomes with permission of the regulator.
+Results
+id="Par3"&gt;In September 2018, 250 inappropriate mentions of specific health conditions were detected from approximately 1250 registrants with 2 failing to comply.
+ The second scan for pregnancy related terms of approximately1350 practitioners revealed 83 inappropriate mentions.
+ Following notification, all 83 cases were compliant within the specified timeframe.
+ Regarding COVID-19 related words, 97 inappropriate mentions of the word “immune” were detected from 1350 registrants with 7 cases of non-compliance.
+Conclusion
+id="Par4"&gt;Internet analytics are an effective way for regulators to monitor internet activity to protect the public from misleading statements.
+ The processes described were effective at bringing about rapid practitioner compliance.
+ Given the increasing volume of internet activity by healthcare professionals, internet analytics are an important addition for health care regulators to protect the public they serve.
+</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,   Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,   Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,   Stan%Innes%S.Innes@murdoch.edu.au%1,   J. Keith%Simpson%k.simpson@murdoch.edu.au%1,   Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The aim of this study was to elicit the views of medical faculty students regarding the COVID-19 pandemic.
+ This descriptive study was performed with Ondokuz Mayıs University Medical Faculty students on 24–27 March, 2020. The Medical Faculty currently has 2051 students.
+ A questionnaire was used as a data collection tool.
+ For that purpose, the authors designed a questionnaire specifically for this research via the “Google Forms” web.
+ This consisted of 40 open- and close-ended questions.
+ The questionnaire was completed by 1375 (67.1%) students.
+ Accordingly, 52.4% of medical students reported feeling mentally unwell.
+ Although 50.8% of medical students reported generally/usually obtaining information about COVID-19 through the social media, 82.0% did not trust information/messages arriving through the social media and WhatsApp.
+ We found that 86.7% of students regarded frequent hand washing as the most important means of protection against COVID-19, and 19.3% of students did not regard the COVID-19 pandemic as a severe public health problem for Turkey at that moment.
+ In addition, 61.6% of students stated that a suppression strategy involving tight restrictions need to be applied to being the pandemic under control in Turkey.
+ Use can be made of medical students in the transmission of accurate information during the COVID-19 pandemic.
+ Students can be excellent activists on these subjects in countries in which medical education is suspended.
+ Measures therefore need to be taken concerning the transmission of up to date and accurate information to medical students.
+</t>
+  </si>
+  <si>
+    <t>[Servet%Aker%servetaker@gmail.com%1,   Özlem%Mıdık%NULL%2,   Özlem%Mıdık%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Internet analytics are increasingly being integrated into public health regulation.
+ One specific application is to monitor compliance of website and social media activity with respect to jurisdictional regulations.
+ These data may then identify breaches of compliance and inform disciplinary actions.
+ Our study aimed to evaluate the novel use of internet analytics by a Canadian chiropractic regulator to determine their registrants compliance with three regulations related to specific health conditions, pregnancy conditions and most recently, claims of improved immunity during the COVID-19 crisis.
+Methods
+A customized internet search tool (Market Review Tool, MRT) was used by the College of Chiropractors of British Columbia (CCBC), Canada to audit registrants websites and social media activity.
+ The audits extracted words whose use within specific contexts is not permitted under CCBC guidelines.
+ The MRT was first used in October of 2018 to identify words related to specific health conditions.
+ The MRT was again used in December 2019 for words related to pregnancy and most recently in March 2020 for words related to COVID-19. In these three MRT applications, potential cases of word misuse were evaluated by the regulator who then notified the practitioner to comply with existing regulations by a specific date.
+ The MRT was then used on that date to determine compliance.
+ Those found to be non-compliant were referred to the regulator’s inquiry committee.
+ We mapped this process and reported the outcomes with permission of the regulator.
+Results
+id="Par3"&gt;In September 2018, 250 inappropriate mentions of specific health conditions were detected from approximately 1250 registrants with 2 failing to comply.
+ The second scan for pregnancy related terms of approximately1350 practitioners revealed 83 inappropriate mentions.
+ Following notification, all 83 cases were compliant within the specified timeframe.
+ Regarding COVID-19 related words, 97 inappropriate mentions of the word “immune” were detected from 1350 registrants with 7 cases of non-compliance.
+Conclusion
+id="Par4"&gt;Internet analytics are an effective way for regulators to monitor internet activity to protect the public from misleading statements.
+ The processes described were effective at bringing about rapid practitioner compliance.
+ Given the increasing volume of internet activity by healthcare professionals, internet analytics are an important addition for health care regulators to protect the public they serve.
+</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,    Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,    Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,    Stan%Innes%S.Innes@murdoch.edu.au%1,    J. Keith%Simpson%k.simpson@murdoch.edu.au%1,    Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Internet analytics are increasingly being integrated into public health regulation.
+ One specific application is to monitor compliance of website and social media activity with respect to jurisdictional regulations.
+ These data may then identify breaches of compliance and inform disciplinary actions.
+ Our study aimed to evaluate the novel use of internet analytics by a Canadian chiropractic regulator to determine their registrants compliance with three regulations related to specific health conditions, pregnancy conditions and most recently, claims of improved immunity during the COVID-19 crisis.
+Methods
+A customized internet search tool (Market Review Tool, MRT) was used by the College of Chiropractors of British Columbia (CCBC), Canada to audit registrants websites and social media activity.
+ The audits extracted words whose use within specific contexts is not permitted under CCBC guidelines.
+ The MRT was first used in October of 2018 to identify words related to specific health conditions.
+ The MRT was again used in December 2019 for words related to pregnancy and most recently in March 2020 for words related to COVID-19. In these three MRT applications, potential cases of word misuse were evaluated by the regulator who then notified the practitioner to comply with existing regulations by a specific date.
+ The MRT was then used on that date to determine compliance.
+ Those found to be non-compliant were referred to the regulator’s inquiry committee.
+ We mapped this process and reported the outcomes with permission of the regulator.
+Results
+In September 2018, 250 inappropriate mentions of specific health conditions were detected from approximately 1250 registrants with 2 failing to comply.
+ The second scan for pregnancy related terms of approximately1350 practitioners revealed 83 inappropriate mentions.
+ Following notification, all 83 cases were compliant within the specified timeframe.
+ Regarding COVID-19 related words, 97 inappropriate mentions of the word “immune” were detected from 1350 registrants with 7 cases of non-compliance.
+Conclusion
+id="Par4"&gt;Internet analytics are an effective way for regulators to monitor internet activity to protect the public from misleading statements.
+ The processes described were effective at bringing about rapid practitioner compliance.
+ Given the increasing volume of internet activity by healthcare professionals, internet analytics are an important addition for health care regulators to protect the public they serve.
+</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,     Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,     Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,     Stan%Innes%S.Innes@murdoch.edu.au%1,     J. Keith%Simpson%k.simpson@murdoch.edu.au%1,     Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Internet analytics are increasingly being integrated into public health regulation.
+ One specific application is to monitor compliance of website and social media activity with respect to jurisdictional regulations.
+ These data may then identify breaches of compliance and inform disciplinary actions.
+ Our study aimed to evaluate the novel use of internet analytics by a Canadian chiropractic regulator to determine their registrants compliance with three regulations related to specific health conditions, pregnancy conditions and most recently, claims of improved immunity during the COVID-19 crisis.
+Methods
+A customized internet search tool (Market Review Tool, MRT) was used by the College of Chiropractors of British Columbia (CCBC), Canada to audit registrants websites and social media activity.
+ The audits extracted words whose use within specific contexts is not permitted under CCBC guidelines.
+ The MRT was first used in October of 2018 to identify words related to specific health conditions.
+ The MRT was again used in December 2019 for words related to pregnancy and most recently in March 2020 for words related to COVID-19. In these three MRT applications, potential cases of word misuse were evaluated by the regulator who then notified the practitioner to comply with existing regulations by a specific date.
+ The MRT was then used on that date to determine compliance.
+ Those found to be non-compliant were referred to the regulator’s inquiry committee.
+ We mapped this process and reported the outcomes with permission of the regulator.
+Results
+In September 2018, 250 inappropriate mentions of specific health conditions were detected from approximately 1250 registrants with 2 failing to comply.
+ The second scan for pregnancy related terms of approximately1350 practitioners revealed 83 inappropriate mentions.
+ Following notification, all 83 cases were compliant within the specified timeframe.
+ Regarding COVID-19 related words, 97 inappropriate mentions of the word “immune” were detected from 1350 registrants with 7 cases of non-compliance.
+Conclusion
+Internet analytics are an effective way for regulators to monitor internet activity to protect the public from misleading statements.
+ The processes described were effective at bringing about rapid practitioner compliance.
+ Given the increasing volume of internet activity by healthcare professionals, internet analytics are an important addition for health care regulators to protect the public they serve.
+</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,      Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,      Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,      Stan%Innes%S.Innes@murdoch.edu.au%1,      J. Keith%Simpson%k.simpson@murdoch.edu.au%1,      Brian%Gushaty%bgushaty@gushaty.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1125,10 +1256,10 @@
         <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -1229,10 +1360,10 @@
         <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F16" t="s">
         <v>77</v>

--- a/Covid_19_Dataset_and_References/References/53.xlsx
+++ b/Covid_19_Dataset_and_References/References/53.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="109">
   <si>
     <t>Doi</t>
   </si>
@@ -524,137 +524,6 @@
   </si>
   <si>
     <t>[Alexander%Muacevic%NULL%0,  John R%Adler%NULL%0,  Ramez%Kouzy%NULL%2,  Ramez%Kouzy%NULL%0,  Joseph%Abi Jaoude%NULL%1,  Afif%Kraitem%NULL%1,  Molly B%El Alam%NULL%1,  Basil%Karam%NULL%1,  Elio%Adib%NULL%1,  Jabra%Zarka%NULL%1,  Cindy%Traboulsi%NULL%1,  Elie W%Akl%NULL%1,  Khalil%Baddour%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Internet analytics are increasingly being integrated into public health regulation.
- One specific application is to monitor compliance of website and social media activity with respect to jurisdictional regulations.
- These data may then identify breaches of compliance and inform disciplinary actions.
- Our study aimed to evaluate the novel use of internet analytics by a Canadian chiropractic regulator to determine their registrants compliance with three regulations related to specific health conditions, pregnancy conditions and most recently, claims of improved immunity during the COVID-19 crisis.
-Methods
-id="Par2"&gt;A customized internet search tool (Market Review Tool, MRT) was used by the College of Chiropractors of British Columbia (CCBC), Canada to audit registrants websites and social media activity.
- The audits extracted words whose use within specific contexts is not permitted under CCBC guidelines.
- The MRT was first used in October of 2018 to identify words related to specific health conditions.
- The MRT was again used in December 2019 for words related to pregnancy and most recently in March 2020 for words related to COVID-19. In these three MRT applications, potential cases of word misuse were evaluated by the regulator who then notified the practitioner to comply with existing regulations by a specific date.
- The MRT was then used on that date to determine compliance.
- Those found to be non-compliant were referred to the regulator’s inquiry committee.
- We mapped this process and reported the outcomes with permission of the regulator.
-Results
-id="Par3"&gt;In September 2018, 250 inappropriate mentions of specific health conditions were detected from approximately 1250 registrants with 2 failing to comply.
- The second scan for pregnancy related terms of approximately1350 practitioners revealed 83 inappropriate mentions.
- Following notification, all 83 cases were compliant within the specified timeframe.
- Regarding COVID-19 related words, 97 inappropriate mentions of the word “immune” were detected from 1350 registrants with 7 cases of non-compliance.
-Conclusion
-id="Par4"&gt;Internet analytics are an effective way for regulators to monitor internet activity to protect the public from misleading statements.
- The processes described were effective at bringing about rapid practitioner compliance.
- Given the increasing volume of internet activity by healthcare professionals, internet analytics are an important addition for health care regulators to protect the public they serve.
-</t>
-  </si>
-  <si>
-    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,   Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,   Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,   Stan%Innes%S.Innes@murdoch.edu.au%1,   J. Keith%Simpson%k.simpson@murdoch.edu.au%1,   Brian%Gushaty%bgushaty@gushaty.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The aim of this study was to elicit the views of medical faculty students regarding the COVID-19 pandemic.
- This descriptive study was performed with Ondokuz Mayıs University Medical Faculty students on 24–27 March, 2020. The Medical Faculty currently has 2051 students.
- A questionnaire was used as a data collection tool.
- For that purpose, the authors designed a questionnaire specifically for this research via the “Google Forms” web.
- This consisted of 40 open- and close-ended questions.
- The questionnaire was completed by 1375 (67.1%) students.
- Accordingly, 52.4% of medical students reported feeling mentally unwell.
- Although 50.8% of medical students reported generally/usually obtaining information about COVID-19 through the social media, 82.0% did not trust information/messages arriving through the social media and WhatsApp.
- We found that 86.7% of students regarded frequent hand washing as the most important means of protection against COVID-19, and 19.3% of students did not regard the COVID-19 pandemic as a severe public health problem for Turkey at that moment.
- In addition, 61.6% of students stated that a suppression strategy involving tight restrictions need to be applied to being the pandemic under control in Turkey.
- Use can be made of medical students in the transmission of accurate information during the COVID-19 pandemic.
- Students can be excellent activists on these subjects in countries in which medical education is suspended.
- Measures therefore need to be taken concerning the transmission of up to date and accurate information to medical students.
-</t>
-  </si>
-  <si>
-    <t>[Servet%Aker%servetaker@gmail.com%1,   Özlem%Mıdık%NULL%2,   Özlem%Mıdık%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Internet analytics are increasingly being integrated into public health regulation.
- One specific application is to monitor compliance of website and social media activity with respect to jurisdictional regulations.
- These data may then identify breaches of compliance and inform disciplinary actions.
- Our study aimed to evaluate the novel use of internet analytics by a Canadian chiropractic regulator to determine their registrants compliance with three regulations related to specific health conditions, pregnancy conditions and most recently, claims of improved immunity during the COVID-19 crisis.
-Methods
-A customized internet search tool (Market Review Tool, MRT) was used by the College of Chiropractors of British Columbia (CCBC), Canada to audit registrants websites and social media activity.
- The audits extracted words whose use within specific contexts is not permitted under CCBC guidelines.
- The MRT was first used in October of 2018 to identify words related to specific health conditions.
- The MRT was again used in December 2019 for words related to pregnancy and most recently in March 2020 for words related to COVID-19. In these three MRT applications, potential cases of word misuse were evaluated by the regulator who then notified the practitioner to comply with existing regulations by a specific date.
- The MRT was then used on that date to determine compliance.
- Those found to be non-compliant were referred to the regulator’s inquiry committee.
- We mapped this process and reported the outcomes with permission of the regulator.
-Results
-id="Par3"&gt;In September 2018, 250 inappropriate mentions of specific health conditions were detected from approximately 1250 registrants with 2 failing to comply.
- The second scan for pregnancy related terms of approximately1350 practitioners revealed 83 inappropriate mentions.
- Following notification, all 83 cases were compliant within the specified timeframe.
- Regarding COVID-19 related words, 97 inappropriate mentions of the word “immune” were detected from 1350 registrants with 7 cases of non-compliance.
-Conclusion
-id="Par4"&gt;Internet analytics are an effective way for regulators to monitor internet activity to protect the public from misleading statements.
- The processes described were effective at bringing about rapid practitioner compliance.
- Given the increasing volume of internet activity by healthcare professionals, internet analytics are an important addition for health care regulators to protect the public they serve.
-</t>
-  </si>
-  <si>
-    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,    Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,    Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,    Stan%Innes%S.Innes@murdoch.edu.au%1,    J. Keith%Simpson%k.simpson@murdoch.edu.au%1,    Brian%Gushaty%bgushaty@gushaty.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Internet analytics are increasingly being integrated into public health regulation.
- One specific application is to monitor compliance of website and social media activity with respect to jurisdictional regulations.
- These data may then identify breaches of compliance and inform disciplinary actions.
- Our study aimed to evaluate the novel use of internet analytics by a Canadian chiropractic regulator to determine their registrants compliance with three regulations related to specific health conditions, pregnancy conditions and most recently, claims of improved immunity during the COVID-19 crisis.
-Methods
-A customized internet search tool (Market Review Tool, MRT) was used by the College of Chiropractors of British Columbia (CCBC), Canada to audit registrants websites and social media activity.
- The audits extracted words whose use within specific contexts is not permitted under CCBC guidelines.
- The MRT was first used in October of 2018 to identify words related to specific health conditions.
- The MRT was again used in December 2019 for words related to pregnancy and most recently in March 2020 for words related to COVID-19. In these three MRT applications, potential cases of word misuse were evaluated by the regulator who then notified the practitioner to comply with existing regulations by a specific date.
- The MRT was then used on that date to determine compliance.
- Those found to be non-compliant were referred to the regulator’s inquiry committee.
- We mapped this process and reported the outcomes with permission of the regulator.
-Results
-In September 2018, 250 inappropriate mentions of specific health conditions were detected from approximately 1250 registrants with 2 failing to comply.
- The second scan for pregnancy related terms of approximately1350 practitioners revealed 83 inappropriate mentions.
- Following notification, all 83 cases were compliant within the specified timeframe.
- Regarding COVID-19 related words, 97 inappropriate mentions of the word “immune” were detected from 1350 registrants with 7 cases of non-compliance.
-Conclusion
-id="Par4"&gt;Internet analytics are an effective way for regulators to monitor internet activity to protect the public from misleading statements.
- The processes described were effective at bringing about rapid practitioner compliance.
- Given the increasing volume of internet activity by healthcare professionals, internet analytics are an important addition for health care regulators to protect the public they serve.
-</t>
-  </si>
-  <si>
-    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,     Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,     Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,     Stan%Innes%S.Innes@murdoch.edu.au%1,     J. Keith%Simpson%k.simpson@murdoch.edu.au%1,     Brian%Gushaty%bgushaty@gushaty.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Internet analytics are increasingly being integrated into public health regulation.
- One specific application is to monitor compliance of website and social media activity with respect to jurisdictional regulations.
- These data may then identify breaches of compliance and inform disciplinary actions.
- Our study aimed to evaluate the novel use of internet analytics by a Canadian chiropractic regulator to determine their registrants compliance with three regulations related to specific health conditions, pregnancy conditions and most recently, claims of improved immunity during the COVID-19 crisis.
-Methods
-A customized internet search tool (Market Review Tool, MRT) was used by the College of Chiropractors of British Columbia (CCBC), Canada to audit registrants websites and social media activity.
- The audits extracted words whose use within specific contexts is not permitted under CCBC guidelines.
- The MRT was first used in October of 2018 to identify words related to specific health conditions.
- The MRT was again used in December 2019 for words related to pregnancy and most recently in March 2020 for words related to COVID-19. In these three MRT applications, potential cases of word misuse were evaluated by the regulator who then notified the practitioner to comply with existing regulations by a specific date.
- The MRT was then used on that date to determine compliance.
- Those found to be non-compliant were referred to the regulator’s inquiry committee.
- We mapped this process and reported the outcomes with permission of the regulator.
-Results
-In September 2018, 250 inappropriate mentions of specific health conditions were detected from approximately 1250 registrants with 2 failing to comply.
- The second scan for pregnancy related terms of approximately1350 practitioners revealed 83 inappropriate mentions.
- Following notification, all 83 cases were compliant within the specified timeframe.
- Regarding COVID-19 related words, 97 inappropriate mentions of the word “immune” were detected from 1350 registrants with 7 cases of non-compliance.
-Conclusion
-Internet analytics are an effective way for regulators to monitor internet activity to protect the public from misleading statements.
- The processes described were effective at bringing about rapid practitioner compliance.
- Given the increasing volume of internet activity by healthcare professionals, internet analytics are an important addition for health care regulators to protect the public they serve.
-</t>
-  </si>
-  <si>
-    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,      Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,      Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,      Stan%Innes%S.Innes@murdoch.edu.au%1,      J. Keith%Simpson%k.simpson@murdoch.edu.au%1,      Brian%Gushaty%bgushaty@gushaty.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1256,10 +1125,10 @@
         <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -1360,10 +1229,10 @@
         <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F16" t="s">
         <v>77</v>

--- a/Covid_19_Dataset_and_References/References/53.xlsx
+++ b/Covid_19_Dataset_and_References/References/53.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="125">
   <si>
     <t>Doi</t>
   </si>
@@ -524,6 +524,54 @@
   </si>
   <si>
     <t>[Alexander%Muacevic%NULL%0,  John R%Adler%NULL%0,  Ramez%Kouzy%NULL%2,  Ramez%Kouzy%NULL%0,  Joseph%Abi Jaoude%NULL%1,  Afif%Kraitem%NULL%1,  Molly B%El Alam%NULL%1,  Basil%Karam%NULL%1,  Elio%Adib%NULL%1,  Jabra%Zarka%NULL%1,  Cindy%Traboulsi%NULL%1,  Elie W%Akl%NULL%1,  Khalil%Baddour%NULL%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Sapna R.%Kudchadkar%NULL%1,   Christopher L.%Carroll%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Sohaib R%Rufai%sohaibrufai@gmail.com%1,   Catey%Bunce%Catey.bunce@kcl.ac.uk%2,   Catey%Bunce%Catey.bunce@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%2,   Kamal%Al Nasr%NULL%2,   Kamal%Al Nasr%NULL%0,   Ross%Gore%NULL%1,   Abdullah%Wahbeh%NULL%2,   Abdullah%Wahbeh%NULL%0,   Tareq%Nasralah%t.nasralah@northeastern.edu%2,   Tareq%Nasralah%t.nasralah@northeastern.edu%0,   Mohammad%Al-Ramahi%NULL%2,   Mohammad%Al-Ramahi%NULL%0,   Omar%El-Gayar%NULL%2,   Omar%El-Gayar%NULL%0]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Vittorio%Gebbia%NULL%1,   Dario%Piazza%NULL%1,   Maria Rosaria%Valerio%NULL%1,   Nicolò%Borsellino%NULL%1,   Alberto%Firenze%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Renee%Jimenez‐Sotomayor%NULL%1,   Carolina%Gomez‐Moreno%NULL%1,   Enrique%Soto‐Perez‐de‐Celis%enrique.sotop@incmnsz.mx%1]</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,   Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,   Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,   Stan%Innes%S.Innes@murdoch.edu.au%1,   J. Keith%Simpson%k.simpson@murdoch.edu.au%1,   Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,   Jon-Patrick%Allem%NULL%2,   Jon-Patrick%Allem%NULL%0,   Richard%Zowalla%NULL%1,   Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%2,   Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%0,   Josep%Vidal-Alaball%NULL%2,   Josep%Vidal-Alaball%NULL%0,   Joseph%Downing%NULL%2,   Joseph%Downing%NULL%0,   Francesc%López Seguí%NULL%2,   Francesc%López Seguí%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Servet%Aker%servetaker@gmail.com%1,   Özlem%Mıdık%NULL%2,   Özlem%Mıdık%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Flecha%Ram\u00f3n%coreGivesNoEmail%1,  Guo%Mengna%coreGivesNoEmail%1,  Pulido%Rodr\u00edguez Cristina%coreGivesNoEmail%1,  Ramis%Salas Maria del Mar%coreGivesNoEmail%1,  Redondo%Sama Gisela%coreGivesNoEmail%1,  Villarejo%Carballido Beatriz%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Bahar%Yuksel%baharyl86@gmail.com%1,   Kubra%Cakmak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,   Nazakat%Hamassed%NULL%2,   Nazakat%Hamassed%NULL%0,   Hardawan%Kakashekh%NULL%1,   Muhammad%Saud%NULL%1,   Mohammad Amin%Bahrami%NULL%1,   Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%2,   Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%0,   Hersh Rasool%Murad%NULL%2,   Hersh Rasool%Murad%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,   John R%Adler%NULL%0,   Ramez%Kouzy%NULL%2,   Ramez%Kouzy%NULL%0,   Joseph%Abi Jaoude%NULL%1,   Afif%Kraitem%NULL%1,   Molly B%El Alam%NULL%1,   Basil%Karam%NULL%1,   Elio%Adib%NULL%1,   Jabra%Zarka%NULL%1,   Cindy%Traboulsi%NULL%1,   Elie W%Akl%NULL%1,   Khalil%Baddour%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -853,6 +901,9 @@
       <c r="H1" t="s">
         <v>32</v>
       </c>
+      <c r="I1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -868,7 +919,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -878,6 +929,9 @@
       </c>
       <c r="H2" t="s">
         <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="3">
@@ -894,7 +948,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -904,6 +958,9 @@
       </c>
       <c r="H3" t="s">
         <v>43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4">
@@ -920,7 +977,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -930,6 +987,9 @@
       </c>
       <c r="H4" t="s">
         <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5">
@@ -957,6 +1017,9 @@
       <c r="H5" t="s">
         <v>53</v>
       </c>
+      <c r="I5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -983,6 +1046,9 @@
       <c r="H6" t="s">
         <v>38</v>
       </c>
+      <c r="I6" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -1001,13 +1067,16 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
         <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="8">
@@ -1035,6 +1104,9 @@
       <c r="H8" t="s">
         <v>38</v>
       </c>
+      <c r="I8" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -1050,7 +1122,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1060,6 +1132,9 @@
       </c>
       <c r="H9" t="s">
         <v>58</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="10">
@@ -1087,6 +1162,9 @@
       <c r="H10" t="s">
         <v>38</v>
       </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -1102,7 +1180,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -1112,6 +1190,9 @@
       </c>
       <c r="H11" t="s">
         <v>63</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1209,7 @@
         <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -1138,6 +1219,9 @@
       </c>
       <c r="H12" t="s">
         <v>68</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="13">
@@ -1154,7 +1238,7 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
@@ -1164,6 +1248,9 @@
       </c>
       <c r="H13" t="s">
         <v>73</v>
+      </c>
+      <c r="I13" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="14">
@@ -1183,13 +1270,16 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="H14" t="s">
         <v>38</v>
+      </c>
+      <c r="I14" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="15">
@@ -1217,6 +1307,9 @@
       <c r="H15" t="s">
         <v>38</v>
       </c>
+      <c r="I15" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -1232,7 +1325,7 @@
         <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="F16" t="s">
         <v>77</v>
@@ -1242,6 +1335,9 @@
       </c>
       <c r="H16" t="s">
         <v>38</v>
+      </c>
+      <c r="I16" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="17">
@@ -1269,6 +1365,9 @@
       <c r="H17" t="s">
         <v>38</v>
       </c>
+      <c r="I17" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -1284,16 +1383,19 @@
         <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="H18" t="s">
         <v>38</v>
+      </c>
+      <c r="I18" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="19">
@@ -1310,7 +1412,7 @@
         <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F19" t="s">
         <v>81</v>
@@ -1320,6 +1422,9 @@
       </c>
       <c r="H19" t="s">
         <v>82</v>
+      </c>
+      <c r="I19" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="20">
@@ -1336,7 +1441,7 @@
         <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="F20" t="s">
         <v>86</v>
@@ -1346,6 +1451,9 @@
       </c>
       <c r="H20" t="s">
         <v>87</v>
+      </c>
+      <c r="I20" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="21">
@@ -1362,7 +1470,7 @@
         <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F21" t="s">
         <v>91</v>
@@ -1372,6 +1480,9 @@
       </c>
       <c r="H21" t="s">
         <v>92</v>
+      </c>
+      <c r="I21" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/53.xlsx
+++ b/Covid_19_Dataset_and_References/References/53.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="173">
   <si>
     <t>Doi</t>
   </si>
@@ -572,6 +572,150 @@
   </si>
   <si>
     <t>[Alexander%Muacevic%NULL%0,   John R%Adler%NULL%0,   Ramez%Kouzy%NULL%2,   Ramez%Kouzy%NULL%0,   Joseph%Abi Jaoude%NULL%1,   Afif%Kraitem%NULL%1,   Molly B%El Alam%NULL%1,   Basil%Karam%NULL%1,   Elio%Adib%NULL%1,   Jabra%Zarka%NULL%1,   Cindy%Traboulsi%NULL%1,   Elie W%Akl%NULL%1,   Khalil%Baddour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sapna R.%Kudchadkar%NULL%1,    Christopher L.%Carroll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sohaib R%Rufai%sohaibrufai@gmail.com%1,    Catey%Bunce%Catey.bunce@kcl.ac.uk%2,    Catey%Bunce%Catey.bunce@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%2,    Kamal%Al Nasr%NULL%2,    Kamal%Al Nasr%NULL%0,    Ross%Gore%NULL%1,    Abdullah%Wahbeh%NULL%2,    Abdullah%Wahbeh%NULL%0,    Tareq%Nasralah%t.nasralah@northeastern.edu%2,    Tareq%Nasralah%t.nasralah@northeastern.edu%0,    Mohammad%Al-Ramahi%NULL%2,    Mohammad%Al-Ramahi%NULL%0,    Omar%El-Gayar%NULL%2,    Omar%El-Gayar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Gebbia%NULL%1,    Dario%Piazza%NULL%1,    Maria Rosaria%Valerio%NULL%1,    Nicolò%Borsellino%NULL%1,    Alberto%Firenze%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Renee%Jimenez‐Sotomayor%NULL%1,    Carolina%Gomez‐Moreno%NULL%1,    Enrique%Soto‐Perez‐de‐Celis%enrique.sotop@incmnsz.mx%1]</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,    Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,    Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,    Stan%Innes%S.Innes@murdoch.edu.au%1,    J. Keith%Simpson%k.simpson@murdoch.edu.au%1,    Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,    Jon-Patrick%Allem%NULL%2,    Jon-Patrick%Allem%NULL%0,    Richard%Zowalla%NULL%1,    Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%2,    Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%0,    Josep%Vidal-Alaball%NULL%2,    Josep%Vidal-Alaball%NULL%0,    Joseph%Downing%NULL%2,    Joseph%Downing%NULL%0,    Francesc%López Seguí%NULL%2,    Francesc%López Seguí%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Servet%Aker%servetaker@gmail.com%1,    Özlem%Mıdık%NULL%2,    Özlem%Mıdık%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Flecha%Ram\u00f3n%coreGivesNoEmail%1,   Guo%Mengna%coreGivesNoEmail%1,   Pulido%Rodr\u00edguez Cristina%coreGivesNoEmail%1,   Ramis%Salas Maria del Mar%coreGivesNoEmail%1,   Redondo%Sama Gisela%coreGivesNoEmail%1,   Villarejo%Carballido Beatriz%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Bahar%Yuksel%baharyl86@gmail.com%1,    Kubra%Cakmak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,    Nazakat%Hamassed%NULL%2,    Nazakat%Hamassed%NULL%0,    Hardawan%Kakashekh%NULL%1,    Muhammad%Saud%NULL%1,    Mohammad Amin%Bahrami%NULL%1,    Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%2,    Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%0,    Hersh Rasool%Murad%NULL%2,    Hersh Rasool%Murad%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,    John R%Adler%NULL%0,    Ramez%Kouzy%NULL%2,    Ramez%Kouzy%NULL%0,    Joseph%Abi Jaoude%NULL%1,    Afif%Kraitem%NULL%1,    Molly B%El Alam%NULL%1,    Basil%Karam%NULL%1,    Elio%Adib%NULL%1,    Jabra%Zarka%NULL%1,    Cindy%Traboulsi%NULL%1,    Elie W%Akl%NULL%1,    Khalil%Baddour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sapna R.%Kudchadkar%NULL%1,     Christopher L.%Carroll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sohaib R%Rufai%sohaibrufai@gmail.com%1,     Catey%Bunce%Catey.bunce@kcl.ac.uk%2,     Catey%Bunce%Catey.bunce@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%2,     Kamal%Al Nasr%NULL%2,     Kamal%Al Nasr%NULL%0,     Ross%Gore%NULL%1,     Abdullah%Wahbeh%NULL%2,     Abdullah%Wahbeh%NULL%0,     Tareq%Nasralah%t.nasralah@northeastern.edu%2,     Tareq%Nasralah%t.nasralah@northeastern.edu%0,     Mohammad%Al-Ramahi%NULL%2,     Mohammad%Al-Ramahi%NULL%0,     Omar%El-Gayar%NULL%2,     Omar%El-Gayar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Gebbia%NULL%1,     Dario%Piazza%NULL%1,     Maria Rosaria%Valerio%NULL%1,     Nicolò%Borsellino%NULL%1,     Alberto%Firenze%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Renee%Jimenez‐Sotomayor%NULL%1,     Carolina%Gomez‐Moreno%NULL%1,     Enrique%Soto‐Perez‐de‐Celis%enrique.sotop@incmnsz.mx%1]</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,     Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,     Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,     Stan%Innes%S.Innes@murdoch.edu.au%1,     J. Keith%Simpson%k.simpson@murdoch.edu.au%1,     Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,     Jon-Patrick%Allem%NULL%2,     Jon-Patrick%Allem%NULL%0,     Richard%Zowalla%NULL%1,     Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%2,     Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%0,     Josep%Vidal-Alaball%NULL%2,     Josep%Vidal-Alaball%NULL%0,     Joseph%Downing%NULL%2,     Joseph%Downing%NULL%0,     Francesc%López Seguí%NULL%2,     Francesc%López Seguí%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Servet%Aker%servetaker@gmail.com%1,     Özlem%Mıdık%NULL%2,     Özlem%Mıdık%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Flecha%Ram\u00f3n%coreGivesNoEmail%1,    Guo%Mengna%coreGivesNoEmail%1,    Pulido%Rodr\u00edguez Cristina%coreGivesNoEmail%1,    Ramis%Salas Maria del Mar%coreGivesNoEmail%1,    Redondo%Sama Gisela%coreGivesNoEmail%1,    Villarejo%Carballido Beatriz%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Bahar%Yuksel%baharyl86@gmail.com%1,     Kubra%Cakmak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,     Nazakat%Hamassed%NULL%2,     Nazakat%Hamassed%NULL%0,     Hardawan%Kakashekh%NULL%1,     Muhammad%Saud%NULL%1,     Mohammad Amin%Bahrami%NULL%1,     Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%2,     Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%0,     Hersh Rasool%Murad%NULL%2,     Hersh Rasool%Murad%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,     John R%Adler%NULL%0,     Ramez%Kouzy%NULL%2,     Ramez%Kouzy%NULL%0,     Joseph%Abi Jaoude%NULL%1,     Afif%Kraitem%NULL%1,     Molly B%El Alam%NULL%1,     Basil%Karam%NULL%1,     Elio%Adib%NULL%1,     Jabra%Zarka%NULL%1,     Cindy%Traboulsi%NULL%1,     Elie W%Akl%NULL%1,     Khalil%Baddour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sapna R.%Kudchadkar%NULL%1,      Christopher L.%Carroll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sohaib R%Rufai%sohaibrufai@gmail.com%1,      Catey%Bunce%Catey.bunce@kcl.ac.uk%2,      Catey%Bunce%Catey.bunce@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%2,      Kamal%Al Nasr%NULL%2,      Kamal%Al Nasr%NULL%0,      Ross%Gore%NULL%1,      Abdullah%Wahbeh%NULL%2,      Abdullah%Wahbeh%NULL%0,      Tareq%Nasralah%t.nasralah@northeastern.edu%2,      Tareq%Nasralah%t.nasralah@northeastern.edu%0,      Mohammad%Al-Ramahi%NULL%2,      Mohammad%Al-Ramahi%NULL%0,      Omar%El-Gayar%NULL%2,      Omar%El-Gayar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Gebbia%NULL%1,      Dario%Piazza%NULL%1,      Maria Rosaria%Valerio%NULL%1,      Nicolò%Borsellino%NULL%1,      Alberto%Firenze%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Renee%Jimenez‐Sotomayor%NULL%1,      Carolina%Gomez‐Moreno%NULL%1,      Enrique%Soto‐Perez‐de‐Celis%enrique.sotop@incmnsz.mx%1]</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,      Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,      Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,      Stan%Innes%S.Innes@murdoch.edu.au%1,      J. Keith%Simpson%k.simpson@murdoch.edu.au%1,      Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,      Jon-Patrick%Allem%NULL%2,      Jon-Patrick%Allem%NULL%0,      Richard%Zowalla%NULL%1,      Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%2,      Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%0,      Josep%Vidal-Alaball%NULL%2,      Josep%Vidal-Alaball%NULL%0,      Joseph%Downing%NULL%2,      Joseph%Downing%NULL%0,      Francesc%López Seguí%NULL%2,      Francesc%López Seguí%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Servet%Aker%servetaker@gmail.com%1,      Özlem%Mıdık%NULL%2,      Özlem%Mıdık%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Flecha%Ram\u00f3n%coreGivesNoEmail%1,     Guo%Mengna%coreGivesNoEmail%1,     Pulido%Rodr\u00edguez Cristina%coreGivesNoEmail%1,     Ramis%Salas Maria del Mar%coreGivesNoEmail%1,     Redondo%Sama Gisela%coreGivesNoEmail%1,     Villarejo%Carballido Beatriz%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Bahar%Yuksel%baharyl86@gmail.com%1,      Kubra%Cakmak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,      Nazakat%Hamassed%NULL%2,      Nazakat%Hamassed%NULL%0,      Hardawan%Kakashekh%NULL%1,      Muhammad%Saud%NULL%1,      Mohammad Amin%Bahrami%NULL%1,      Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%2,      Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%0,      Hersh Rasool%Murad%NULL%2,      Hersh Rasool%Murad%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,      John R%Adler%NULL%0,      Ramez%Kouzy%NULL%2,      Ramez%Kouzy%NULL%0,      Joseph%Abi Jaoude%NULL%1,      Afif%Kraitem%NULL%1,      Molly B%El Alam%NULL%1,      Basil%Karam%NULL%1,      Elio%Adib%NULL%1,      Jabra%Zarka%NULL%1,      Cindy%Traboulsi%NULL%1,      Elie W%Akl%NULL%1,      Khalil%Baddour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sapna R.%Kudchadkar%NULL%1,       Christopher L.%Carroll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sohaib R%Rufai%sohaibrufai@gmail.com%1,       Catey%Bunce%Catey.bunce@kcl.ac.uk%2,       Catey%Bunce%Catey.bunce@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%2,       Kamal%Al Nasr%NULL%2,       Kamal%Al Nasr%NULL%0,       Ross%Gore%NULL%1,       Abdullah%Wahbeh%NULL%2,       Abdullah%Wahbeh%NULL%0,       Tareq%Nasralah%t.nasralah@northeastern.edu%2,       Tareq%Nasralah%t.nasralah@northeastern.edu%0,       Mohammad%Al-Ramahi%NULL%2,       Mohammad%Al-Ramahi%NULL%0,       Omar%El-Gayar%NULL%2,       Omar%El-Gayar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Gebbia%NULL%1,       Dario%Piazza%NULL%1,       Maria Rosaria%Valerio%NULL%1,       Nicolò%Borsellino%NULL%1,       Alberto%Firenze%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Renee%Jimenez‐Sotomayor%NULL%1,       Carolina%Gomez‐Moreno%NULL%1,       Enrique%Soto‐Perez‐de‐Celis%enrique.sotop@incmnsz.mx%1]</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,       Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,       Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,       Stan%Innes%S.Innes@murdoch.edu.au%1,       J. Keith%Simpson%k.simpson@murdoch.edu.au%1,       Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,       Jon-Patrick%Allem%NULL%2,       Jon-Patrick%Allem%NULL%0,       Richard%Zowalla%NULL%1,       Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%2,       Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%0,       Josep%Vidal-Alaball%NULL%2,       Josep%Vidal-Alaball%NULL%0,       Joseph%Downing%NULL%2,       Joseph%Downing%NULL%0,       Francesc%López Seguí%NULL%2,       Francesc%López Seguí%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Servet%Aker%servetaker@gmail.com%1,       Özlem%Mıdık%NULL%2,       Özlem%Mıdık%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Flecha%Ram\u00f3n%coreGivesNoEmail%1,      Guo%Mengna%coreGivesNoEmail%1,      Pulido%Rodr\u00edguez Cristina%coreGivesNoEmail%1,      Ramis%Salas Maria del Mar%coreGivesNoEmail%1,      Redondo%Sama Gisela%coreGivesNoEmail%1,      Villarejo%Carballido Beatriz%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Bahar%Yuksel%baharyl86@gmail.com%1,       Kubra%Cakmak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,       Nazakat%Hamassed%NULL%2,       Nazakat%Hamassed%NULL%0,       Hardawan%Kakashekh%NULL%1,       Muhammad%Saud%NULL%1,       Mohammad Amin%Bahrami%NULL%1,       Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%2,       Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%0,       Hersh Rasool%Murad%NULL%2,       Hersh Rasool%Murad%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,       John R%Adler%NULL%0,       Ramez%Kouzy%NULL%2,       Ramez%Kouzy%NULL%0,       Joseph%Abi Jaoude%NULL%1,       Afif%Kraitem%NULL%1,       Molly B%El Alam%NULL%1,       Basil%Karam%NULL%1,       Elio%Adib%NULL%1,       Jabra%Zarka%NULL%1,       Cindy%Traboulsi%NULL%1,       Elie W%Akl%NULL%1,       Khalil%Baddour%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -919,7 +1063,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -948,7 +1092,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -977,7 +1121,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -1122,7 +1266,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1180,7 +1324,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -1209,7 +1353,7 @@
         <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -1238,7 +1382,7 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
@@ -1325,7 +1469,7 @@
         <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="F16" t="s">
         <v>77</v>
@@ -1383,13 +1527,13 @@
         <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s">
         <v>38</v>
@@ -1412,7 +1556,7 @@
         <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="F19" t="s">
         <v>81</v>
@@ -1441,7 +1585,7 @@
         <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="F20" t="s">
         <v>86</v>
@@ -1470,7 +1614,7 @@
         <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="F21" t="s">
         <v>91</v>

--- a/Covid_19_Dataset_and_References/References/53.xlsx
+++ b/Covid_19_Dataset_and_References/References/53.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="221">
   <si>
     <t>Doi</t>
   </si>
@@ -716,6 +716,179 @@
   </si>
   <si>
     <t>[Alexander%Muacevic%NULL%0,       John R%Adler%NULL%0,       Ramez%Kouzy%NULL%2,       Ramez%Kouzy%NULL%0,       Joseph%Abi Jaoude%NULL%1,       Afif%Kraitem%NULL%1,       Molly B%El Alam%NULL%1,       Basil%Karam%NULL%1,       Elio%Adib%NULL%1,       Jabra%Zarka%NULL%1,       Cindy%Traboulsi%NULL%1,       Elie W%Akl%NULL%1,       Khalil%Baddour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sapna R.%Kudchadkar%NULL%1,        Christopher L.%Carroll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sohaib R%Rufai%sohaibrufai@gmail.com%1,        Catey%Bunce%Catey.bunce@kcl.ac.uk%2,        Catey%Bunce%Catey.bunce@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%2,        Kamal%Al Nasr%NULL%2,        Kamal%Al Nasr%NULL%0,        Ross%Gore%NULL%1,        Abdullah%Wahbeh%NULL%2,        Abdullah%Wahbeh%NULL%0,        Tareq%Nasralah%t.nasralah@northeastern.edu%2,        Tareq%Nasralah%t.nasralah@northeastern.edu%0,        Mohammad%Al-Ramahi%NULL%2,        Mohammad%Al-Ramahi%NULL%0,        Omar%El-Gayar%NULL%2,        Omar%El-Gayar%NULL%0]</t>
+  </si>
+  <si>
+    <t>"El Profesional de la informaci\u00f3n"</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-25</t>
+  </si>
+  <si>
+    <t>"Assessment of COVID-19 Knowledge Among University Students: Implications for Future Risk Communication Strategies"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">" The purpose of this study was to describe population knowledge and beliefs about COVID-19 and current social media coverage to address a gap in what is known about risk communication during health crises.
+ A survey with 27 questions was developed.
+ Twenty-three percent ( N = 1,136) of respondents started the survey.
+ Less than half of the students reported a high health literacy level (43%, n = 365\/855).
+ When asked where students have heard about COVID-19, the majority reported the Internet and social media.
+ Students reported a basic level of COVID-19 knowledge, but few students (18%, n = 173\/966) correctly identified all three signs and\/or symptoms of COVID-19. Results highlight the need for an increased public health presence on social media and the urgent need to remain diligent in educating community members about COVID-19 myths.
+ </t>
+  </si>
+  <si>
+    <t>[Amy%Chesser%xref no email%1, Amy%Drassen Ham%xref no email%1, Nikki%Keene Woods%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-19</t>
+  </si>
+  <si>
+    <t>[Vittorio%Gebbia%NULL%1,        Dario%Piazza%NULL%1,        Maria Rosaria%Valerio%NULL%1,        Nicolò%Borsellino%NULL%1,        Alberto%Firenze%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Fake news y coronavirus: detecci\u00f3n de los principales actores y tendencias a trav\u00e9s del an\u00e1lisis de las conversaciones en Twitter"</t>
+  </si>
+  <si>
+    <t>[Jesus-Angel%P\u00e9rez-Dasilva%xref no email%1, Koldobika%Meso-Ayerdi%xref no email%1, Terese%Mendiguren-Galdosp\u00edn%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>[Maria Renee%Jimenez‐Sotomayor%NULL%1,        Carolina%Gomez‐Moreno%NULL%1,        Enrique%Soto‐Perez‐de‐Celis%enrique.sotop@incmnsz.mx%1]</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,        Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,        Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,        Stan%Innes%S.Innes@murdoch.edu.au%1,        J. Keith%Simpson%k.simpson@murdoch.edu.au%1,        Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,        Jon-Patrick%Allem%NULL%2,        Jon-Patrick%Allem%NULL%0,        Richard%Zowalla%NULL%1,        Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%2,        Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%0,        Josep%Vidal-Alaball%NULL%2,        Josep%Vidal-Alaball%NULL%0,        Joseph%Downing%NULL%2,        Joseph%Downing%NULL%0,        Francesc%López Seguí%NULL%2,        Francesc%López Seguí%NULL%0]</t>
+  </si>
+  <si>
+    <t>"PUBLIC REACTION TO COVID-19 ON TWITTER: A THEMATIC ANALYSIS"</t>
+  </si>
+  <si>
+    <t>"Emergency situations typically lead to a plethora of public attention on social media platforms like \u2018Twitter\u2019. Twitter provides a unique opportunity for public health researchers to analyze untampered information shared during a disease outbreak.
+ Considering the ongoing public health emergency, we conducted a study investigating the public reaction to COVID-19 pandemic around the world using in-depth thematic analysis of Twitter data.
+ A dataset of 212846 tweets was retrieved over a period of seven days (from April 13, 2020, to April 19, 2020) via Twitter Application Programme Interface (API).
+ The following five keywords were used to collect the tweets: \u201ccoronavirus\u201d, \u201ccovid-19\u201d, \u201ccorona\u201d, \u201ccovid\u201d, \u201ccovid19\u201d.
+ After data filtering and cleaning 6348 tweets were randomly selected for in-depth thematic analysis.
+ Thematic analysis was done manually using a two-level coding guide.
+ A total of six main themes emerged from the analysis: \u2018sentiments and feelings\u2019, \u2018Information\u2019, \u2018General Discussion\u2019, \u2018Politics\u2019, \u2018Food\u2019, and \u2018Sarcasm or humor\u2019. The aforementioned themes were divided into 26 sub-themes.
+ The results of the thematic analysis show that 30.1% of the tweets were regarding \u2018sentiments and feelings\u2019, 15.6% were regarding \u2018politics\u2019, and 6.5% were related to \u2018sarcasm or humor\u2019. The present study is the first study that has analyzed the public response to COVID-19 on Twitter.
+ The study demonstrates that social media platforms (like Twitter) can be used to conduct infodemiological studies related to public health emergencies like the COVID-19 pandemic.
+ We believe that the results of this study will be of potential interest to policymakers, health authorities, stakeholders, and public health and social science researchers.
+\n\nKEYWORDS:COVID-19, Twitter, Social Media, Coronavirus, Lockdown, Pandemic</t>
+  </si>
+  <si>
+    <t>2023-03-04</t>
+  </si>
+  <si>
+    <t>"Genomics, social media and the novel coronavirus pandemic, COVID-19"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"The spread of misinformation and conspiracy theories about the novel coronavirus on social media has led to increased racist and xenophobic acts.
+ The origin of the novel coronavirus is still unknown, but it has been widely discussed online.
+ Viral genomics research will help us understand the origin, structure and evolution of the novel coronavirus (SARS-CoV-2).
+ We developed a simple one-minute Facebook survey to assess Portuguese residents\u2019 perceptions about the origin of the SARS-CoV-2. The results revealed high levels of misinformation, mainly among those groups with lower educational attainment.
+ Social media will need to take on the hard task of improving the quality of science communication and changing mindsets.
+ Society at large will be responsible for preventing a future pandemic through the coordination and improvement of civic, political, educational and scientific approaches.
+</t>
+  </si>
+  <si>
+    <t>[Francisco%Morinha%xref no email%1, Paula%Magalh\u00e3es%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-04-11</t>
+  </si>
+  <si>
+    <t>[Servet%Aker%servetaker@gmail.com%1,        Özlem%Mıdık%NULL%2,        Özlem%Mıdık%NULL%0]</t>
+  </si>
+  <si>
+    <t>"COVID-19 infodemic: More retweets for science-based information on coronavirus than for false information"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">" The World Health Organization has not only signaled the health risks of COVID-19, but also labeled the situation as infodemic, due to the amount of information, true and false, circulating around this topic.
+ Research shows that, in social media, falsehood is shared far more than evidence-based information.
+ However, there is less research analyzing the circulation of false and evidence-based information during health emergencies.
+ Thus, the present study aims at shedding new light on the type of tweets that circulated on Twitter around the COVID-19 outbreak for two days, in order to analyze how false and true information was shared.
+ To that end, 1000 tweets have been analyzed.
+ Results show that false information is tweeted more but retweeted less than science-based evidence or fact-checking tweets, while science-based evidence and fact-checking tweets capture more engagement than mere facts.
+ These findings bring relevant insights to inform public health policies.
+ </t>
+  </si>
+  <si>
+    <t>[Cristina M%Pulido%xref no email%1, Beatriz%Villarejo-Carballido%xref no email%1, Gisela%Redondo-Sama%xref no email%1, Aitor%G\u00f3mez%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Flecha%Ram\u00f3n%coreGivesNoEmail%1,       Guo%Mengna%coreGivesNoEmail%1,       Pulido%Rodr\u00edguez Cristina%coreGivesNoEmail%1,       Ramis%Salas Maria del Mar%coreGivesNoEmail%1,       Redondo%Sama Gisela%coreGivesNoEmail%1,       Villarejo%Carballido Beatriz%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Bahar%Yuksel%baharyl86@gmail.com%1,        Kubra%Cakmak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,        Nazakat%Hamassed%NULL%2,        Nazakat%Hamassed%NULL%0,        Hardawan%Kakashekh%NULL%1,        Muhammad%Saud%NULL%1,        Mohammad Amin%Bahrami%NULL%1,        Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%2,        Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%0,        Hersh Rasool%Murad%NULL%2,        Hersh Rasool%Murad%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,        John R%Adler%NULL%0,        Ramez%Kouzy%NULL%2,        Ramez%Kouzy%NULL%0,        Joseph%Abi Jaoude%NULL%1,        Afif%Kraitem%NULL%1,        Molly B%El Alam%NULL%1,        Basil%Karam%NULL%1,        Elio%Adib%NULL%1,        Jabra%Zarka%NULL%1,        Cindy%Traboulsi%NULL%1,        Elie W%Akl%NULL%1,        Khalil%Baddour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sapna R.%Kudchadkar%NULL%1,         Christopher L.%Carroll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sohaib R%Rufai%sohaibrufai@gmail.com%1,         Catey%Bunce%Catey.bunce@kcl.ac.uk%2,         Catey%Bunce%Catey.bunce@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%2,         Kamal%Al Nasr%NULL%2,         Kamal%Al Nasr%NULL%0,         Ross%Gore%NULL%1,         Abdullah%Wahbeh%NULL%2,         Abdullah%Wahbeh%NULL%0,         Tareq%Nasralah%t.nasralah@northeastern.edu%2,         Tareq%Nasralah%t.nasralah@northeastern.edu%0,         Mohammad%Al-Ramahi%NULL%2,         Mohammad%Al-Ramahi%NULL%0,         Omar%El-Gayar%NULL%2,         Omar%El-Gayar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amy%Chesser%xref no email%1,  Amy%Drassen Ham%xref no email%1,  Nikki%Keene Woods%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Gebbia%NULL%1,         Dario%Piazza%NULL%1,         Maria Rosaria%Valerio%NULL%1,         Nicolò%Borsellino%NULL%1,         Alberto%Firenze%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jesus-Angel%P\u00e9rez-Dasilva%xref no email%1,  Koldobika%Meso-Ayerdi%xref no email%1,  Terese%Mendiguren-Galdosp\u00edn%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Maria Renee%Jimenez‐Sotomayor%NULL%1,         Carolina%Gomez‐Moreno%NULL%1,         Enrique%Soto‐Perez‐de‐Celis%enrique.sotop@incmnsz.mx%1]</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,         Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,         Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,         Stan%Innes%S.Innes@murdoch.edu.au%1,         J. Keith%Simpson%k.simpson@murdoch.edu.au%1,         Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,         Jon-Patrick%Allem%NULL%2,         Jon-Patrick%Allem%NULL%0,         Richard%Zowalla%NULL%1,         Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%2,         Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%0,         Josep%Vidal-Alaball%NULL%2,         Josep%Vidal-Alaball%NULL%0,         Joseph%Downing%NULL%2,         Joseph%Downing%NULL%0,         Francesc%López Seguí%NULL%2,         Francesc%López Seguí%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Francisco%Morinha%xref no email%1,  Paula%Magalh\u00e3es%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Servet%Aker%servetaker@gmail.com%1,         Özlem%Mıdık%NULL%2,         Özlem%Mıdık%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cristina M%Pulido%xref no email%1,  Beatriz%Villarejo-Carballido%xref no email%1,  Gisela%Redondo-Sama%xref no email%1,  Aitor%G\u00f3mez%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Flecha%Ram\u00f3n%coreGivesNoEmail%1,        Guo%Mengna%coreGivesNoEmail%1,        Pulido%Rodr\u00edguez Cristina%coreGivesNoEmail%1,        Ramis%Salas Maria del Mar%coreGivesNoEmail%1,        Redondo%Sama Gisela%coreGivesNoEmail%1,        Villarejo%Carballido Beatriz%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Bahar%Yuksel%baharyl86@gmail.com%1,         Kubra%Cakmak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,         Nazakat%Hamassed%NULL%2,         Nazakat%Hamassed%NULL%0,         Hardawan%Kakashekh%NULL%1,         Muhammad%Saud%NULL%1,         Mohammad Amin%Bahrami%NULL%1,         Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%2,         Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%0,         Hersh Rasool%Murad%NULL%2,         Hersh Rasool%Murad%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,         John R%Adler%NULL%0,         Ramez%Kouzy%NULL%2,         Ramez%Kouzy%NULL%0,         Joseph%Abi Jaoude%NULL%1,         Afif%Kraitem%NULL%1,         Molly B%El Alam%NULL%1,         Basil%Karam%NULL%1,         Elio%Adib%NULL%1,         Jabra%Zarka%NULL%1,         Cindy%Traboulsi%NULL%1,         Elie W%Akl%NULL%1,         Khalil%Baddour%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1236,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -1092,7 +1265,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -1121,7 +1294,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -1173,7 +1346,7 @@
         <v>2020.0</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -1182,13 +1355,13 @@
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="I6" t="s">
         <v>114</v>
@@ -1231,22 +1404,22 @@
         <v>44044.0</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="I8" t="s">
         <v>114</v>
@@ -1266,7 +1439,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1289,22 +1462,22 @@
         <v>43959.0</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>210</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="I10" t="s">
         <v>114</v>
@@ -1324,7 +1497,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -1353,7 +1526,7 @@
         <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -1382,7 +1555,7 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
@@ -1405,22 +1578,22 @@
         <v>2020.0</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="I14" t="s">
         <v>114</v>
@@ -1434,22 +1607,22 @@
         <v>2020.0</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>214</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="I15" t="s">
         <v>114</v>
@@ -1469,7 +1642,7 @@
         <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="F16" t="s">
         <v>77</v>
@@ -1492,22 +1665,22 @@
         <v>43936.0</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="I17" t="s">
         <v>114</v>
@@ -1527,7 +1700,7 @@
         <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -1556,7 +1729,7 @@
         <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="F19" t="s">
         <v>81</v>
@@ -1585,7 +1758,7 @@
         <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="F20" t="s">
         <v>86</v>
@@ -1614,7 +1787,7 @@
         <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="F21" t="s">
         <v>91</v>

--- a/Covid_19_Dataset_and_References/References/53.xlsx
+++ b/Covid_19_Dataset_and_References/References/53.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="253">
   <si>
     <t>Doi</t>
   </si>
@@ -889,6 +889,102 @@
   </si>
   <si>
     <t>[Alexander%Muacevic%NULL%0,         John R%Adler%NULL%0,         Ramez%Kouzy%NULL%2,         Ramez%Kouzy%NULL%0,         Joseph%Abi Jaoude%NULL%1,         Afif%Kraitem%NULL%1,         Molly B%El Alam%NULL%1,         Basil%Karam%NULL%1,         Elio%Adib%NULL%1,         Jabra%Zarka%NULL%1,         Cindy%Traboulsi%NULL%1,         Elie W%Akl%NULL%1,         Khalil%Baddour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sapna R.%Kudchadkar%NULL%1,          Christopher L.%Carroll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sohaib R%Rufai%sohaibrufai@gmail.com%1,          Catey%Bunce%Catey.bunce@kcl.ac.uk%2,          Catey%Bunce%Catey.bunce@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%2,          Kamal%Al Nasr%NULL%2,          Kamal%Al Nasr%NULL%0,          Ross%Gore%NULL%1,          Abdullah%Wahbeh%NULL%2,          Abdullah%Wahbeh%NULL%0,          Tareq%Nasralah%t.nasralah@northeastern.edu%2,          Tareq%Nasralah%t.nasralah@northeastern.edu%0,          Mohammad%Al-Ramahi%NULL%2,          Mohammad%Al-Ramahi%NULL%0,          Omar%El-Gayar%NULL%2,          Omar%El-Gayar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amy%Chesser%xref no email%1,   Amy%Drassen Ham%xref no email%1,   Nikki%Keene Woods%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Gebbia%NULL%1,          Dario%Piazza%NULL%1,          Maria Rosaria%Valerio%NULL%1,          Nicolò%Borsellino%NULL%1,          Alberto%Firenze%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jesus-Angel%P\u00e9rez-Dasilva%xref no email%1,   Koldobika%Meso-Ayerdi%xref no email%1,   Terese%Mendiguren-Galdosp\u00edn%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Maria Renee%Jimenez‐Sotomayor%NULL%1,          Carolina%Gomez‐Moreno%NULL%1,          Enrique%Soto‐Perez‐de‐Celis%enrique.sotop@incmnsz.mx%1]</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,          Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,          Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,          Stan%Innes%S.Innes@murdoch.edu.au%1,          J. Keith%Simpson%k.simpson@murdoch.edu.au%1,          Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,          Jon-Patrick%Allem%NULL%2,          Jon-Patrick%Allem%NULL%0,          Richard%Zowalla%NULL%1,          Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%2,          Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%0,          Josep%Vidal-Alaball%NULL%2,          Josep%Vidal-Alaball%NULL%0,          Joseph%Downing%NULL%2,          Joseph%Downing%NULL%0,          Francesc%López Seguí%NULL%2,          Francesc%López Seguí%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Francisco%Morinha%xref no email%1,   Paula%Magalh\u00e3es%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Servet%Aker%servetaker@gmail.com%1,          Özlem%Mıdık%NULL%2,          Özlem%Mıdık%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cristina M%Pulido%xref no email%1,   Beatriz%Villarejo-Carballido%xref no email%1,   Gisela%Redondo-Sama%xref no email%1,   Aitor%G\u00f3mez%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Flecha%Ram\u00f3n%coreGivesNoEmail%1,         Guo%Mengna%coreGivesNoEmail%1,         Pulido%Rodr\u00edguez Cristina%coreGivesNoEmail%1,         Ramis%Salas Maria del Mar%coreGivesNoEmail%1,         Redondo%Sama Gisela%coreGivesNoEmail%1,         Villarejo%Carballido Beatriz%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Bahar%Yuksel%baharyl86@gmail.com%1,          Kubra%Cakmak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,          Nazakat%Hamassed%NULL%2,          Nazakat%Hamassed%NULL%0,          Hardawan%Kakashekh%NULL%1,          Muhammad%Saud%NULL%1,          Mohammad Amin%Bahrami%NULL%1,          Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%2,          Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%0,          Hersh Rasool%Murad%NULL%2,          Hersh Rasool%Murad%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,          John R%Adler%NULL%0,          Ramez%Kouzy%NULL%2,          Ramez%Kouzy%NULL%0,          Joseph%Abi Jaoude%NULL%1,          Afif%Kraitem%NULL%1,          Molly B%El Alam%NULL%1,          Basil%Karam%NULL%1,          Elio%Adib%NULL%1,          Jabra%Zarka%NULL%1,          Cindy%Traboulsi%NULL%1,          Elie W%Akl%NULL%1,          Khalil%Baddour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sapna R.%Kudchadkar%NULL%1,           Christopher L.%Carroll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sohaib R%Rufai%sohaibrufai@gmail.com%1,           Catey%Bunce%Catey.bunce@kcl.ac.uk%2,           Catey%Bunce%Catey.bunce@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%2,           Kamal%Al Nasr%NULL%2,           Kamal%Al Nasr%NULL%0,           Ross%Gore%NULL%1,           Abdullah%Wahbeh%NULL%2,           Abdullah%Wahbeh%NULL%0,           Tareq%Nasralah%t.nasralah@northeastern.edu%2,           Tareq%Nasralah%t.nasralah@northeastern.edu%0,           Mohammad%Al-Ramahi%NULL%2,           Mohammad%Al-Ramahi%NULL%0,           Omar%El-Gayar%NULL%2,           Omar%El-Gayar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amy%Chesser%xref no email%1,    Amy%Drassen Ham%xref no email%1,    Nikki%Keene Woods%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Gebbia%NULL%1,           Dario%Piazza%NULL%1,           Maria Rosaria%Valerio%NULL%1,           Nicolò%Borsellino%NULL%1,           Alberto%Firenze%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jesus-Angel%P\u00e9rez-Dasilva%xref no email%1,    Koldobika%Meso-Ayerdi%xref no email%1,    Terese%Mendiguren-Galdosp\u00edn%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Maria Renee%Jimenez‐Sotomayor%NULL%1,           Carolina%Gomez‐Moreno%NULL%1,           Enrique%Soto‐Perez‐de‐Celis%enrique.sotop@incmnsz.mx%1]</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,           Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,           Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,           Stan%Innes%S.Innes@murdoch.edu.au%1,           J. Keith%Simpson%k.simpson@murdoch.edu.au%1,           Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,           Jon-Patrick%Allem%NULL%2,           Jon-Patrick%Allem%NULL%0,           Richard%Zowalla%NULL%1,           Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%2,           Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%0,           Josep%Vidal-Alaball%NULL%2,           Josep%Vidal-Alaball%NULL%0,           Joseph%Downing%NULL%2,           Joseph%Downing%NULL%0,           Francesc%López Seguí%NULL%2,           Francesc%López Seguí%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Francisco%Morinha%xref no email%1,    Paula%Magalh\u00e3es%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Servet%Aker%servetaker@gmail.com%1,           Özlem%Mıdık%NULL%2,           Özlem%Mıdık%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cristina M%Pulido%xref no email%1,    Beatriz%Villarejo-Carballido%xref no email%1,    Gisela%Redondo-Sama%xref no email%1,    Aitor%G\u00f3mez%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Flecha%Ram\u00f3n%coreGivesNoEmail%1,          Guo%Mengna%coreGivesNoEmail%1,          Pulido%Rodr\u00edguez Cristina%coreGivesNoEmail%1,          Ramis%Salas Maria del Mar%coreGivesNoEmail%1,          Redondo%Sama Gisela%coreGivesNoEmail%1,          Villarejo%Carballido Beatriz%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Bahar%Yuksel%baharyl86@gmail.com%1,           Kubra%Cakmak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,           Nazakat%Hamassed%NULL%2,           Nazakat%Hamassed%NULL%0,           Hardawan%Kakashekh%NULL%1,           Muhammad%Saud%NULL%1,           Mohammad Amin%Bahrami%NULL%1,           Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%2,           Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%0,           Hersh Rasool%Murad%NULL%2,           Hersh Rasool%Murad%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,           John R%Adler%NULL%0,           Ramez%Kouzy%NULL%2,           Ramez%Kouzy%NULL%0,           Joseph%Abi Jaoude%NULL%1,           Afif%Kraitem%NULL%1,           Molly B%El Alam%NULL%1,           Basil%Karam%NULL%1,           Elio%Adib%NULL%1,           Jabra%Zarka%NULL%1,           Cindy%Traboulsi%NULL%1,           Elie W%Akl%NULL%1,           Khalil%Baddour%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1332,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -1265,7 +1361,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -1294,7 +1390,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -1410,7 +1506,7 @@
         <v>180</v>
       </c>
       <c r="E8" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1439,7 +1535,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1468,7 +1564,7 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1497,7 +1593,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -1526,7 +1622,7 @@
         <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -1555,7 +1651,7 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
@@ -1613,7 +1709,7 @@
         <v>194</v>
       </c>
       <c r="E15" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -1642,7 +1738,7 @@
         <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="F16" t="s">
         <v>77</v>
@@ -1671,7 +1767,7 @@
         <v>199</v>
       </c>
       <c r="E17" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -1700,7 +1796,7 @@
         <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -1729,7 +1825,7 @@
         <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="F19" t="s">
         <v>81</v>
@@ -1758,7 +1854,7 @@
         <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F20" t="s">
         <v>86</v>
@@ -1787,7 +1883,7 @@
         <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="F21" t="s">
         <v>91</v>

--- a/Covid_19_Dataset_and_References/References/53.xlsx
+++ b/Covid_19_Dataset_and_References/References/53.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="287">
   <si>
     <t>Doi</t>
   </si>
@@ -985,6 +985,143 @@
   </si>
   <si>
     <t>[Alexander%Muacevic%NULL%0,           John R%Adler%NULL%0,           Ramez%Kouzy%NULL%2,           Ramez%Kouzy%NULL%0,           Joseph%Abi Jaoude%NULL%1,           Afif%Kraitem%NULL%1,           Molly B%El Alam%NULL%1,           Basil%Karam%NULL%1,           Elio%Adib%NULL%1,           Jabra%Zarka%NULL%1,           Cindy%Traboulsi%NULL%1,           Elie W%Akl%NULL%1,           Khalil%Baddour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sapna R.%Kudchadkar%NULL%1,            Christopher L.%Carroll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sohaib R%Rufai%sohaibrufai@gmail.com%1,            Catey%Bunce%Catey.bunce@kcl.ac.uk%2,            Catey%Bunce%Catey.bunce@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%2,            Kamal%Al Nasr%NULL%2,            Kamal%Al Nasr%NULL%0,            Ross%Gore%NULL%1,            Abdullah%Wahbeh%NULL%2,            Abdullah%Wahbeh%NULL%0,            Tareq%Nasralah%t.nasralah@northeastern.edu%2,            Tareq%Nasralah%t.nasralah@northeastern.edu%0,            Mohammad%Al-Ramahi%NULL%2,            Mohammad%Al-Ramahi%NULL%0,            Omar%El-Gayar%NULL%2,            Omar%El-Gayar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amy%Chesser%xref no email%1,     Amy%Drassen Ham%xref no email%1,     Nikki%Keene Woods%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Gebbia%NULL%1,            Dario%Piazza%NULL%1,            Maria Rosaria%Valerio%NULL%1,            Nicolò%Borsellino%NULL%1,            Alberto%Firenze%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jesus-Angel%P\u00e9rez-Dasilva%xref no email%1,     Koldobika%Meso-Ayerdi%xref no email%1,     Terese%Mendiguren-Galdosp\u00edn%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Maria Renee%Jimenez‐Sotomayor%NULL%1,            Carolina%Gomez‐Moreno%NULL%1,            Enrique%Soto‐Perez‐de‐Celis%enrique.sotop@incmnsz.mx%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Internet analytics are increasingly being integrated into public health regulation.
+ One specific application is to monitor compliance of website and social media activity with respect to jurisdictional regulations.
+ These data may then identify breaches of compliance and inform disciplinary actions.
+ Our study aimed to evaluate the novel use of internet analytics by a Canadian chiropractic regulator to determine their registrants compliance with three regulations related to specific health conditions, pregnancy conditions and most recently, claims of improved immunity during the COVID-19 crisis.
+Methods
+A customized internet search tool (Market Review Tool, MRT) was used by the College of Chiropractors of British Columbia (CCBC), Canada to audit registrants websites and social media activity.
+ The audits extracted words whose use within specific contexts is not permitted under CCBC guidelines.
+ The MRT was first used in October of 2018 to identify words related to specific health conditions.
+ The MRT was again used in December 2019 for words related to pregnancy and most recently in March 2020 for words related to COVID-19. In these three MRT applications, potential cases of word misuse were evaluated by the regulator who then notified the practitioner to comply with existing regulations by a specific date.
+ The MRT was then used on that date to determine compliance.
+ Those found to be non-compliant were referred to the regulator’s inquiry committee.
+ We mapped this process and reported the outcomes with permission of the regulator.
+Results
+In September 2018, 250 inappropriate mentions of specific health conditions were detected from approximately 1250 registrants with 2 failing to comply.
+ The second scan for pregnancy related terms of approximately1350 practitioners revealed 83 inappropriate mentions.
+ Following notification, all 83 cases were compliant within the specified timeframe.
+ Regarding COVID-19 related words, 97 inappropriate mentions of the word “immune” were detected from 1350 registrants with 7 cases of non-compliance.
+Conclusion
+Internet analytics are an effective way for regulators to monitor internet activity to protect the public from misleading statements.
+ The processes described were effective at bringing about rapid practitioner compliance.
+ Given the increasing volume of internet activity by healthcare professionals, internet analytics are an important addition for health care regulators to protect the public they serve.
+</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,            Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,            Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,            Stan%Innes%S.Innes@murdoch.edu.au%1,            J. Keith%Simpson%k.simpson@murdoch.edu.au%1,            Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,            Jon-Patrick%Allem%NULL%2,            Jon-Patrick%Allem%NULL%0,            Richard%Zowalla%NULL%1,            Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%2,            Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%0,            Josep%Vidal-Alaball%NULL%2,            Josep%Vidal-Alaball%NULL%0,            Joseph%Downing%NULL%2,            Joseph%Downing%NULL%0,            Francesc%López Seguí%NULL%2,            Francesc%López Seguí%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Francisco%Morinha%xref no email%1,     Paula%Magalh\u00e3es%xref no email%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The aim of this study was to elicit the views of medical faculty students regarding the COVID-19 pandemic.
+ This descriptive study was performed with Ondokuz Mayıs University Medical Faculty students on 24–27 March, 2020. The Medical Faculty currently has 2051 students.
+ A questionnaire was used as a data collection tool.
+ For that purpose, the authors designed a questionnaire specifically for this research via the “Google Forms” web.
+ This consisted of 40 open- and close-ended questions.
+ The questionnaire was completed by 1375 (67.1%) students.
+ Accordingly, 52.4% of medical students reported feeling mentally unwell.
+ Although 50.8% of medical students reported generally/usually obtaining information about COVID-19 through the social media, 82.0% did not trust information/messages arriving through the social media and WhatsApp.
+ We found that 86.7% of students regarded frequent hand washing as the most important means of protection against COVID-19, and 19.3% of students did not regard the COVID-19 pandemic as a severe public health problem for Turkey at that moment.
+ In addition, 61.6% of students stated that a suppression strategy involving tight restrictions need to be applied to being the pandemic under control in Turkey.
+ Use can be made of medical students in the transmission of accurate information during the COVID-19 pandemic.
+ Students can be excellent activists on these subjects in countries in which medical education is suspended.
+ Measures therefore need to be taken concerning the transmission of up to date and accurate information to medical students.
+</t>
+  </si>
+  <si>
+    <t>[Servet%Aker%servetaker@gmail.com%1,            Özlem%Mıdık%NULL%2,            Özlem%Mıdık%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cristina M%Pulido%xref no email%1,     Beatriz%Villarejo-Carballido%xref no email%1,     Gisela%Redondo-Sama%xref no email%1,     Aitor%G\u00f3mez%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Flecha%Ram\u00f3n%coreGivesNoEmail%1,           Guo%Mengna%coreGivesNoEmail%1,           Pulido%Rodr\u00edguez Cristina%coreGivesNoEmail%1,           Ramis%Salas Maria del Mar%coreGivesNoEmail%1,           Redondo%Sama Gisela%coreGivesNoEmail%1,           Villarejo%Carballido Beatriz%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Bahar%Yuksel%baharyl86@gmail.com%1,            Kubra%Cakmak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,            Nazakat%Hamassed%NULL%2,            Nazakat%Hamassed%NULL%0,            Hardawan%Kakashekh%NULL%1,            Muhammad%Saud%NULL%1,            Mohammad Amin%Bahrami%NULL%1,            Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%2,            Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%0,            Hersh Rasool%Murad%NULL%2,            Hersh Rasool%Murad%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,            John R%Adler%NULL%0,            Ramez%Kouzy%NULL%2,            Ramez%Kouzy%NULL%0,            Joseph%Abi Jaoude%NULL%1,            Afif%Kraitem%NULL%1,            Molly B%El Alam%NULL%1,            Basil%Karam%NULL%1,            Elio%Adib%NULL%1,            Jabra%Zarka%NULL%1,            Cindy%Traboulsi%NULL%1,            Elie W%Akl%NULL%1,            Khalil%Baddour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sapna R.%Kudchadkar%NULL%1,             Christopher L.%Carroll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sohaib R%Rufai%sohaibrufai@gmail.com%1,             Catey%Bunce%Catey.bunce@kcl.ac.uk%2,             Catey%Bunce%Catey.bunce@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%2,             Kamal%Al Nasr%NULL%2,             Kamal%Al Nasr%NULL%0,             Ross%Gore%NULL%1,             Abdullah%Wahbeh%NULL%2,             Abdullah%Wahbeh%NULL%0,             Tareq%Nasralah%t.nasralah@northeastern.edu%2,             Tareq%Nasralah%t.nasralah@northeastern.edu%0,             Mohammad%Al-Ramahi%NULL%2,             Mohammad%Al-Ramahi%NULL%0,             Omar%El-Gayar%NULL%2,             Omar%El-Gayar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amy%Chesser%xref no email%1,      Amy%Drassen Ham%xref no email%1,      Nikki%Keene Woods%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Gebbia%NULL%1,             Dario%Piazza%NULL%1,             Maria Rosaria%Valerio%NULL%1,             Nicolò%Borsellino%NULL%1,             Alberto%Firenze%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jesus-Angel%P\u00e9rez-Dasilva%xref no email%1,      Koldobika%Meso-Ayerdi%xref no email%1,      Terese%Mendiguren-Galdosp\u00edn%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Maria Renee%Jimenez‐Sotomayor%NULL%1,             Carolina%Gomez‐Moreno%NULL%1,             Enrique%Soto‐Perez‐de‐Celis%enrique.sotop@incmnsz.mx%1]</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,             Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,             Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,             Stan%Innes%S.Innes@murdoch.edu.au%1,             J. Keith%Simpson%k.simpson@murdoch.edu.au%1,             Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,             Jon-Patrick%Allem%NULL%2,             Jon-Patrick%Allem%NULL%0,             Richard%Zowalla%NULL%1,             Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%2,             Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%0,             Josep%Vidal-Alaball%NULL%2,             Josep%Vidal-Alaball%NULL%0,             Joseph%Downing%NULL%2,             Joseph%Downing%NULL%0,             Francesc%López Seguí%NULL%2,             Francesc%López Seguí%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Francisco%Morinha%xref no email%1,      Paula%Magalh\u00e3es%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Servet%Aker%servetaker@gmail.com%1,             Özlem%Mıdık%NULL%2,             Özlem%Mıdık%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cristina M%Pulido%xref no email%1,      Beatriz%Villarejo-Carballido%xref no email%1,      Gisela%Redondo-Sama%xref no email%1,      Aitor%G\u00f3mez%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Flecha%Ram\u00f3n%coreGivesNoEmail%1,            Guo%Mengna%coreGivesNoEmail%1,            Pulido%Rodr\u00edguez Cristina%coreGivesNoEmail%1,            Ramis%Salas Maria del Mar%coreGivesNoEmail%1,            Redondo%Sama Gisela%coreGivesNoEmail%1,            Villarejo%Carballido Beatriz%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Bahar%Yuksel%baharyl86@gmail.com%1,             Kubra%Cakmak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,             Nazakat%Hamassed%NULL%2,             Nazakat%Hamassed%NULL%0,             Hardawan%Kakashekh%NULL%1,             Muhammad%Saud%NULL%1,             Mohammad Amin%Bahrami%NULL%1,             Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%2,             Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%0,             Hersh Rasool%Murad%NULL%2,             Hersh Rasool%Murad%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,             John R%Adler%NULL%0,             Ramez%Kouzy%NULL%2,             Ramez%Kouzy%NULL%0,             Joseph%Abi Jaoude%NULL%1,             Afif%Kraitem%NULL%1,             Molly B%El Alam%NULL%1,             Basil%Karam%NULL%1,             Elio%Adib%NULL%1,             Jabra%Zarka%NULL%1,             Cindy%Traboulsi%NULL%1,             Elie W%Akl%NULL%1,             Khalil%Baddour%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1469,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -1361,7 +1498,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -1390,7 +1527,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -1506,7 +1643,7 @@
         <v>180</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1535,7 +1672,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1564,7 +1701,7 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1593,7 +1730,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -1619,10 +1756,10 @@
         <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>260</v>
       </c>
       <c r="E12" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -1651,7 +1788,7 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
@@ -1709,7 +1846,7 @@
         <v>194</v>
       </c>
       <c r="E15" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -1735,10 +1872,10 @@
         <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>264</v>
       </c>
       <c r="E16" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="F16" t="s">
         <v>77</v>
@@ -1767,7 +1904,7 @@
         <v>199</v>
       </c>
       <c r="E17" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -1796,7 +1933,7 @@
         <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -1825,7 +1962,7 @@
         <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="F19" t="s">
         <v>81</v>
@@ -1854,7 +1991,7 @@
         <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="F20" t="s">
         <v>86</v>
@@ -1883,7 +2020,7 @@
         <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="F21" t="s">
         <v>91</v>

--- a/Covid_19_Dataset_and_References/References/53.xlsx
+++ b/Covid_19_Dataset_and_References/References/53.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="303">
   <si>
     <t>Doi</t>
   </si>
@@ -1122,6 +1122,54 @@
   </si>
   <si>
     <t>[Alexander%Muacevic%NULL%0,             John R%Adler%NULL%0,             Ramez%Kouzy%NULL%2,             Ramez%Kouzy%NULL%0,             Joseph%Abi Jaoude%NULL%1,             Afif%Kraitem%NULL%1,             Molly B%El Alam%NULL%1,             Basil%Karam%NULL%1,             Elio%Adib%NULL%1,             Jabra%Zarka%NULL%1,             Cindy%Traboulsi%NULL%1,             Elie W%Akl%NULL%1,             Khalil%Baddour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sapna R.%Kudchadkar%NULL%1,              Christopher L.%Carroll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sohaib R%Rufai%sohaibrufai@gmail.com%1,              Catey%Bunce%Catey.bunce@kcl.ac.uk%2,              Catey%Bunce%Catey.bunce@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%2,              Kamal%Al Nasr%NULL%2,              Kamal%Al Nasr%NULL%0,              Ross%Gore%NULL%1,              Abdullah%Wahbeh%NULL%2,              Abdullah%Wahbeh%NULL%0,              Tareq%Nasralah%t.nasralah@northeastern.edu%2,              Tareq%Nasralah%t.nasralah@northeastern.edu%0,              Mohammad%Al-Ramahi%NULL%2,              Mohammad%Al-Ramahi%NULL%0,              Omar%El-Gayar%NULL%2,              Omar%El-Gayar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amy%Chesser%xref no email%1,       Amy%Drassen Ham%xref no email%1,       Nikki%Keene Woods%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Gebbia%NULL%1,              Dario%Piazza%NULL%1,              Maria Rosaria%Valerio%NULL%1,              Nicolò%Borsellino%NULL%1,              Alberto%Firenze%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jesus-Angel%P\u00e9rez-Dasilva%xref no email%1,       Koldobika%Meso-Ayerdi%xref no email%1,       Terese%Mendiguren-Galdosp\u00edn%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Maria Renee%Jimenez‐Sotomayor%NULL%1,              Carolina%Gomez‐Moreno%NULL%1,              Enrique%Soto‐Perez‐de‐Celis%enrique.sotop@incmnsz.mx%1]</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,              Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,              Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,              Stan%Innes%S.Innes@murdoch.edu.au%1,              J. Keith%Simpson%k.simpson@murdoch.edu.au%1,              Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,              Jon-Patrick%Allem%NULL%2,              Jon-Patrick%Allem%NULL%0,              Richard%Zowalla%NULL%1,              Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%2,              Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%0,              Josep%Vidal-Alaball%NULL%2,              Josep%Vidal-Alaball%NULL%0,              Joseph%Downing%NULL%2,              Joseph%Downing%NULL%0,              Francesc%López Seguí%NULL%2,              Francesc%López Seguí%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Francisco%Morinha%xref no email%1,       Paula%Magalh\u00e3es%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Servet%Aker%servetaker@gmail.com%1,              Özlem%Mıdık%NULL%2,              Özlem%Mıdık%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cristina M%Pulido%xref no email%1,       Beatriz%Villarejo-Carballido%xref no email%1,       Gisela%Redondo-Sama%xref no email%1,       Aitor%G\u00f3mez%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Flecha%Ram\u00f3n%coreGivesNoEmail%1,             Guo%Mengna%coreGivesNoEmail%1,             Pulido%Rodr\u00edguez Cristina%coreGivesNoEmail%1,             Ramis%Salas Maria del Mar%coreGivesNoEmail%1,             Redondo%Sama Gisela%coreGivesNoEmail%1,             Villarejo%Carballido Beatriz%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Bahar%Yuksel%baharyl86@gmail.com%1,              Kubra%Cakmak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,              Nazakat%Hamassed%NULL%2,              Nazakat%Hamassed%NULL%0,              Hardawan%Kakashekh%NULL%1,              Muhammad%Saud%NULL%1,              Mohammad Amin%Bahrami%NULL%1,              Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%2,              Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%0,              Hersh Rasool%Murad%NULL%2,              Hersh Rasool%Murad%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,              John R%Adler%NULL%0,              Ramez%Kouzy%NULL%2,              Ramez%Kouzy%NULL%0,              Joseph%Abi Jaoude%NULL%1,              Afif%Kraitem%NULL%1,              Molly B%El Alam%NULL%1,              Basil%Karam%NULL%1,              Elio%Adib%NULL%1,              Jabra%Zarka%NULL%1,              Cindy%Traboulsi%NULL%1,              Elie W%Akl%NULL%1,              Khalil%Baddour%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1517,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -1498,7 +1546,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -1527,7 +1575,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -1643,7 +1691,7 @@
         <v>180</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1672,7 +1720,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1701,7 +1749,7 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1730,7 +1778,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -1759,7 +1807,7 @@
         <v>260</v>
       </c>
       <c r="E12" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -1788,7 +1836,7 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
@@ -1846,7 +1894,7 @@
         <v>194</v>
       </c>
       <c r="E15" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -1875,7 +1923,7 @@
         <v>264</v>
       </c>
       <c r="E16" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="F16" t="s">
         <v>77</v>
@@ -1904,7 +1952,7 @@
         <v>199</v>
       </c>
       <c r="E17" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -1933,7 +1981,7 @@
         <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -1962,7 +2010,7 @@
         <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="F19" t="s">
         <v>81</v>
@@ -1991,7 +2039,7 @@
         <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="F20" t="s">
         <v>86</v>
@@ -2020,7 +2068,7 @@
         <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="F21" t="s">
         <v>91</v>

--- a/Covid_19_Dataset_and_References/References/53.xlsx
+++ b/Covid_19_Dataset_and_References/References/53.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="319">
   <si>
     <t>Doi</t>
   </si>
@@ -1170,6 +1170,54 @@
   </si>
   <si>
     <t>[Alexander%Muacevic%NULL%0,              John R%Adler%NULL%0,              Ramez%Kouzy%NULL%2,              Ramez%Kouzy%NULL%0,              Joseph%Abi Jaoude%NULL%1,              Afif%Kraitem%NULL%1,              Molly B%El Alam%NULL%1,              Basil%Karam%NULL%1,              Elio%Adib%NULL%1,              Jabra%Zarka%NULL%1,              Cindy%Traboulsi%NULL%1,              Elie W%Akl%NULL%1,              Khalil%Baddour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sapna R.%Kudchadkar%NULL%1,               Christopher L.%Carroll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sohaib R%Rufai%sohaibrufai@gmail.com%1,               Catey%Bunce%Catey.bunce@kcl.ac.uk%2,               Catey%Bunce%Catey.bunce@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%2,               Kamal%Al Nasr%NULL%2,               Kamal%Al Nasr%NULL%0,               Ross%Gore%NULL%1,               Abdullah%Wahbeh%NULL%2,               Abdullah%Wahbeh%NULL%0,               Tareq%Nasralah%t.nasralah@northeastern.edu%2,               Tareq%Nasralah%t.nasralah@northeastern.edu%0,               Mohammad%Al-Ramahi%NULL%2,               Mohammad%Al-Ramahi%NULL%0,               Omar%El-Gayar%NULL%2,               Omar%El-Gayar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amy%Chesser%xref no email%1,        Amy%Drassen Ham%xref no email%1,        Nikki%Keene Woods%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Gebbia%NULL%1,               Dario%Piazza%NULL%1,               Maria Rosaria%Valerio%NULL%1,               Nicolò%Borsellino%NULL%1,               Alberto%Firenze%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jesus-Angel%P\u00e9rez-Dasilva%xref no email%1,        Koldobika%Meso-Ayerdi%xref no email%1,        Terese%Mendiguren-Galdosp\u00edn%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Maria Renee%Jimenez‐Sotomayor%NULL%1,               Carolina%Gomez‐Moreno%NULL%1,               Enrique%Soto‐Perez‐de‐Celis%enrique.sotop@incmnsz.mx%1]</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,               Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,               Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,               Stan%Innes%S.Innes@murdoch.edu.au%1,               J. Keith%Simpson%k.simpson@murdoch.edu.au%1,               Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,               Jon-Patrick%Allem%NULL%2,               Jon-Patrick%Allem%NULL%0,               Richard%Zowalla%NULL%1,               Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%2,               Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%0,               Josep%Vidal-Alaball%NULL%2,               Josep%Vidal-Alaball%NULL%0,               Joseph%Downing%NULL%2,               Joseph%Downing%NULL%0,               Francesc%López Seguí%NULL%2,               Francesc%López Seguí%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Francisco%Morinha%xref no email%1,        Paula%Magalh\u00e3es%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Servet%Aker%servetaker@gmail.com%1,               Özlem%Mıdık%NULL%2,               Özlem%Mıdık%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cristina M%Pulido%xref no email%1,        Beatriz%Villarejo-Carballido%xref no email%1,        Gisela%Redondo-Sama%xref no email%1,        Aitor%G\u00f3mez%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Flecha%Ram\u00f3n%coreGivesNoEmail%1,              Guo%Mengna%coreGivesNoEmail%1,              Pulido%Rodr\u00edguez Cristina%coreGivesNoEmail%1,              Ramis%Salas Maria del Mar%coreGivesNoEmail%1,              Redondo%Sama Gisela%coreGivesNoEmail%1,              Villarejo%Carballido Beatriz%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Bahar%Yuksel%baharyl86@gmail.com%1,               Kubra%Cakmak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,               Nazakat%Hamassed%NULL%2,               Nazakat%Hamassed%NULL%0,               Hardawan%Kakashekh%NULL%1,               Muhammad%Saud%NULL%1,               Mohammad Amin%Bahrami%NULL%1,               Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%2,               Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%0,               Hersh Rasool%Murad%NULL%2,               Hersh Rasool%Murad%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,               John R%Adler%NULL%0,               Ramez%Kouzy%NULL%2,               Ramez%Kouzy%NULL%0,               Joseph%Abi Jaoude%NULL%1,               Afif%Kraitem%NULL%1,               Molly B%El Alam%NULL%1,               Basil%Karam%NULL%1,               Elio%Adib%NULL%1,               Jabra%Zarka%NULL%1,               Cindy%Traboulsi%NULL%1,               Elie W%Akl%NULL%1,               Khalil%Baddour%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1565,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -1546,7 +1594,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -1575,7 +1623,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -1691,7 +1739,7 @@
         <v>180</v>
       </c>
       <c r="E8" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1720,7 +1768,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1749,7 +1797,7 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1778,7 +1826,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -1807,7 +1855,7 @@
         <v>260</v>
       </c>
       <c r="E12" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -1836,7 +1884,7 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
@@ -1894,7 +1942,7 @@
         <v>194</v>
       </c>
       <c r="E15" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -1923,7 +1971,7 @@
         <v>264</v>
       </c>
       <c r="E16" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="F16" t="s">
         <v>77</v>
@@ -1952,7 +2000,7 @@
         <v>199</v>
       </c>
       <c r="E17" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -1981,7 +2029,7 @@
         <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -2010,7 +2058,7 @@
         <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="F19" t="s">
         <v>81</v>
@@ -2039,7 +2087,7 @@
         <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="F20" t="s">
         <v>86</v>
@@ -2068,7 +2116,7 @@
         <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="F21" t="s">
         <v>91</v>

--- a/Covid_19_Dataset_and_References/References/53.xlsx
+++ b/Covid_19_Dataset_and_References/References/53.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="351">
   <si>
     <t>Doi</t>
   </si>
@@ -1218,6 +1218,102 @@
   </si>
   <si>
     <t>[Alexander%Muacevic%NULL%0,               John R%Adler%NULL%0,               Ramez%Kouzy%NULL%2,               Ramez%Kouzy%NULL%0,               Joseph%Abi Jaoude%NULL%1,               Afif%Kraitem%NULL%1,               Molly B%El Alam%NULL%1,               Basil%Karam%NULL%1,               Elio%Adib%NULL%1,               Jabra%Zarka%NULL%1,               Cindy%Traboulsi%NULL%1,               Elie W%Akl%NULL%1,               Khalil%Baddour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sapna R.%Kudchadkar%NULL%1,                Christopher L.%Carroll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sohaib R%Rufai%sohaibrufai@gmail.com%1,                Catey%Bunce%Catey.bunce@kcl.ac.uk%2,                Catey%Bunce%Catey.bunce@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%2,                Kamal%Al Nasr%NULL%2,                Kamal%Al Nasr%NULL%0,                Ross%Gore%NULL%1,                Abdullah%Wahbeh%NULL%2,                Abdullah%Wahbeh%NULL%0,                Tareq%Nasralah%t.nasralah@northeastern.edu%2,                Tareq%Nasralah%t.nasralah@northeastern.edu%0,                Mohammad%Al-Ramahi%NULL%2,                Mohammad%Al-Ramahi%NULL%0,                Omar%El-Gayar%NULL%2,                Omar%El-Gayar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amy%Chesser%xref no email%1,         Amy%Drassen Ham%xref no email%1,         Nikki%Keene Woods%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Gebbia%NULL%1,                Dario%Piazza%NULL%1,                Maria Rosaria%Valerio%NULL%1,                Nicolò%Borsellino%NULL%1,                Alberto%Firenze%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jesus-Angel%P\u00e9rez-Dasilva%xref no email%1,         Koldobika%Meso-Ayerdi%xref no email%1,         Terese%Mendiguren-Galdosp\u00edn%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Maria Renee%Jimenez‐Sotomayor%NULL%1,                Carolina%Gomez‐Moreno%NULL%1,                Enrique%Soto‐Perez‐de‐Celis%enrique.sotop@incmnsz.mx%1]</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,                Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,                Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,                Stan%Innes%S.Innes@murdoch.edu.au%1,                J. Keith%Simpson%k.simpson@murdoch.edu.au%1,                Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                Jon-Patrick%Allem%NULL%2,                Jon-Patrick%Allem%NULL%0,                Richard%Zowalla%NULL%1,                Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%2,                Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%0,                Josep%Vidal-Alaball%NULL%2,                Josep%Vidal-Alaball%NULL%0,                Joseph%Downing%NULL%2,                Joseph%Downing%NULL%0,                Francesc%López Seguí%NULL%2,                Francesc%López Seguí%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Francisco%Morinha%xref no email%1,         Paula%Magalh\u00e3es%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Servet%Aker%servetaker@gmail.com%1,                Özlem%Mıdık%NULL%2,                Özlem%Mıdık%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cristina M%Pulido%xref no email%1,         Beatriz%Villarejo-Carballido%xref no email%1,         Gisela%Redondo-Sama%xref no email%1,         Aitor%G\u00f3mez%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Flecha%Ram\u00f3n%coreGivesNoEmail%1,               Guo%Mengna%coreGivesNoEmail%1,               Pulido%Rodr\u00edguez Cristina%coreGivesNoEmail%1,               Ramis%Salas Maria del Mar%coreGivesNoEmail%1,               Redondo%Sama Gisela%coreGivesNoEmail%1,               Villarejo%Carballido Beatriz%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Bahar%Yuksel%baharyl86@gmail.com%1,                Kubra%Cakmak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                Nazakat%Hamassed%NULL%2,                Nazakat%Hamassed%NULL%0,                Hardawan%Kakashekh%NULL%1,                Muhammad%Saud%NULL%1,                Mohammad Amin%Bahrami%NULL%1,                Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%2,                Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%0,                Hersh Rasool%Murad%NULL%2,                Hersh Rasool%Murad%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                John R%Adler%NULL%0,                Ramez%Kouzy%NULL%2,                Ramez%Kouzy%NULL%0,                Joseph%Abi Jaoude%NULL%1,                Afif%Kraitem%NULL%1,                Molly B%El Alam%NULL%1,                Basil%Karam%NULL%1,                Elio%Adib%NULL%1,                Jabra%Zarka%NULL%1,                Cindy%Traboulsi%NULL%1,                Elie W%Akl%NULL%1,                Khalil%Baddour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sapna R.%Kudchadkar%NULL%1,                 Christopher L.%Carroll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sohaib R%Rufai%sohaibrufai@gmail.com%1,                 Catey%Bunce%Catey.bunce@kcl.ac.uk%2,                 Catey%Bunce%Catey.bunce@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%2,                 Kamal%Al Nasr%NULL%2,                 Kamal%Al Nasr%NULL%0,                 Ross%Gore%NULL%1,                 Abdullah%Wahbeh%NULL%2,                 Abdullah%Wahbeh%NULL%0,                 Tareq%Nasralah%t.nasralah@northeastern.edu%2,                 Tareq%Nasralah%t.nasralah@northeastern.edu%0,                 Mohammad%Al-Ramahi%NULL%2,                 Mohammad%Al-Ramahi%NULL%0,                 Omar%El-Gayar%NULL%2,                 Omar%El-Gayar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amy%Chesser%xref no email%1,          Amy%Drassen Ham%xref no email%1,          Nikki%Keene Woods%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Gebbia%NULL%1,                 Dario%Piazza%NULL%1,                 Maria Rosaria%Valerio%NULL%1,                 Nicolò%Borsellino%NULL%1,                 Alberto%Firenze%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jesus-Angel%P\u00e9rez-Dasilva%xref no email%1,          Koldobika%Meso-Ayerdi%xref no email%1,          Terese%Mendiguren-Galdosp\u00edn%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Maria Renee%Jimenez‐Sotomayor%NULL%1,                 Carolina%Gomez‐Moreno%NULL%1,                 Enrique%Soto‐Perez‐de‐Celis%enrique.sotop@incmnsz.mx%1]</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,                 Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,                 Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,                 Stan%Innes%S.Innes@murdoch.edu.au%1,                 J. Keith%Simpson%k.simpson@murdoch.edu.au%1,                 Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                 Jon-Patrick%Allem%NULL%2,                 Jon-Patrick%Allem%NULL%0,                 Richard%Zowalla%NULL%1,                 Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%2,                 Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%0,                 Josep%Vidal-Alaball%NULL%2,                 Josep%Vidal-Alaball%NULL%0,                 Joseph%Downing%NULL%2,                 Joseph%Downing%NULL%0,                 Francesc%López Seguí%NULL%2,                 Francesc%López Seguí%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Francisco%Morinha%xref no email%1,          Paula%Magalh\u00e3es%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Servet%Aker%servetaker@gmail.com%1,                 Özlem%Mıdık%NULL%2,                 Özlem%Mıdık%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cristina M%Pulido%xref no email%1,          Beatriz%Villarejo-Carballido%xref no email%1,          Gisela%Redondo-Sama%xref no email%1,          Aitor%G\u00f3mez%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Flecha%Ram\u00f3n%coreGivesNoEmail%1,                Guo%Mengna%coreGivesNoEmail%1,                Pulido%Rodr\u00edguez Cristina%coreGivesNoEmail%1,                Ramis%Salas Maria del Mar%coreGivesNoEmail%1,                Redondo%Sama Gisela%coreGivesNoEmail%1,                Villarejo%Carballido Beatriz%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Bahar%Yuksel%baharyl86@gmail.com%1,                 Kubra%Cakmak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                 Nazakat%Hamassed%NULL%2,                 Nazakat%Hamassed%NULL%0,                 Hardawan%Kakashekh%NULL%1,                 Muhammad%Saud%NULL%1,                 Mohammad Amin%Bahrami%NULL%1,                 Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%2,                 Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%0,                 Hersh Rasool%Murad%NULL%2,                 Hersh Rasool%Murad%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                 John R%Adler%NULL%0,                 Ramez%Kouzy%NULL%2,                 Ramez%Kouzy%NULL%0,                 Joseph%Abi Jaoude%NULL%1,                 Afif%Kraitem%NULL%1,                 Molly B%El Alam%NULL%1,                 Basil%Karam%NULL%1,                 Elio%Adib%NULL%1,                 Jabra%Zarka%NULL%1,                 Cindy%Traboulsi%NULL%1,                 Elie W%Akl%NULL%1,                 Khalil%Baddour%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1661,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -1594,7 +1690,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -1623,7 +1719,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -1739,7 +1835,7 @@
         <v>180</v>
       </c>
       <c r="E8" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1768,7 +1864,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1797,7 +1893,7 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1826,7 +1922,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -1855,7 +1951,7 @@
         <v>260</v>
       </c>
       <c r="E12" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -1884,7 +1980,7 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
@@ -1942,7 +2038,7 @@
         <v>194</v>
       </c>
       <c r="E15" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -1971,7 +2067,7 @@
         <v>264</v>
       </c>
       <c r="E16" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="F16" t="s">
         <v>77</v>
@@ -2000,7 +2096,7 @@
         <v>199</v>
       </c>
       <c r="E17" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -2029,7 +2125,7 @@
         <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -2058,7 +2154,7 @@
         <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="F19" t="s">
         <v>81</v>
@@ -2087,7 +2183,7 @@
         <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="F20" t="s">
         <v>86</v>
@@ -2116,7 +2212,7 @@
         <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="F21" t="s">
         <v>91</v>

--- a/Covid_19_Dataset_and_References/References/53.xlsx
+++ b/Covid_19_Dataset_and_References/References/53.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2794" uniqueCount="367">
   <si>
     <t>Doi</t>
   </si>
@@ -1314,6 +1314,54 @@
   </si>
   <si>
     <t>[Alexander%Muacevic%NULL%0,                 John R%Adler%NULL%0,                 Ramez%Kouzy%NULL%2,                 Ramez%Kouzy%NULL%0,                 Joseph%Abi Jaoude%NULL%1,                 Afif%Kraitem%NULL%1,                 Molly B%El Alam%NULL%1,                 Basil%Karam%NULL%1,                 Elio%Adib%NULL%1,                 Jabra%Zarka%NULL%1,                 Cindy%Traboulsi%NULL%1,                 Elie W%Akl%NULL%1,                 Khalil%Baddour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sapna R.%Kudchadkar%NULL%1,                  Christopher L.%Carroll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sohaib R%Rufai%sohaibrufai@gmail.com%1,                  Catey%Bunce%Catey.bunce@kcl.ac.uk%2,                  Catey%Bunce%Catey.bunce@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%2,                  Kamal%Al Nasr%NULL%2,                  Kamal%Al Nasr%NULL%0,                  Ross%Gore%NULL%1,                  Abdullah%Wahbeh%NULL%2,                  Abdullah%Wahbeh%NULL%0,                  Tareq%Nasralah%t.nasralah@northeastern.edu%2,                  Tareq%Nasralah%t.nasralah@northeastern.edu%0,                  Mohammad%Al-Ramahi%NULL%2,                  Mohammad%Al-Ramahi%NULL%0,                  Omar%El-Gayar%NULL%2,                  Omar%El-Gayar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amy%Chesser%xref no email%1,           Amy%Drassen Ham%xref no email%1,           Nikki%Keene Woods%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Gebbia%NULL%1,                  Dario%Piazza%NULL%1,                  Maria Rosaria%Valerio%NULL%1,                  Nicolò%Borsellino%NULL%1,                  Alberto%Firenze%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jesus-Angel%P\u00e9rez-Dasilva%xref no email%1,           Koldobika%Meso-Ayerdi%xref no email%1,           Terese%Mendiguren-Galdosp\u00edn%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Maria Renee%Jimenez‐Sotomayor%NULL%1,                  Carolina%Gomez‐Moreno%NULL%1,                  Enrique%Soto‐Perez‐de‐Celis%enrique.sotop@incmnsz.mx%1]</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,                  Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,                  Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,                  Stan%Innes%S.Innes@murdoch.edu.au%1,                  J. Keith%Simpson%k.simpson@murdoch.edu.au%1,                  Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                  Jon-Patrick%Allem%NULL%2,                  Jon-Patrick%Allem%NULL%0,                  Richard%Zowalla%NULL%1,                  Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%2,                  Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%0,                  Josep%Vidal-Alaball%NULL%2,                  Josep%Vidal-Alaball%NULL%0,                  Joseph%Downing%NULL%2,                  Joseph%Downing%NULL%0,                  Francesc%López Seguí%NULL%2,                  Francesc%López Seguí%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Francisco%Morinha%xref no email%1,           Paula%Magalh\u00e3es%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Servet%Aker%servetaker@gmail.com%1,                  Özlem%Mıdık%NULL%2,                  Özlem%Mıdık%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cristina M%Pulido%xref no email%1,           Beatriz%Villarejo-Carballido%xref no email%1,           Gisela%Redondo-Sama%xref no email%1,           Aitor%G\u00f3mez%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Flecha%Ram\u00f3n%coreGivesNoEmail%1,                 Guo%Mengna%coreGivesNoEmail%1,                 Pulido%Rodr\u00edguez Cristina%coreGivesNoEmail%1,                 Ramis%Salas Maria del Mar%coreGivesNoEmail%1,                 Redondo%Sama Gisela%coreGivesNoEmail%1,                 Villarejo%Carballido Beatriz%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Bahar%Yuksel%baharyl86@gmail.com%1,                  Kubra%Cakmak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                  Nazakat%Hamassed%NULL%2,                  Nazakat%Hamassed%NULL%0,                  Hardawan%Kakashekh%NULL%1,                  Muhammad%Saud%NULL%1,                  Mohammad Amin%Bahrami%NULL%1,                  Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%2,                  Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%0,                  Hersh Rasool%Murad%NULL%2,                  Hersh Rasool%Murad%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                  John R%Adler%NULL%0,                  Ramez%Kouzy%NULL%2,                  Ramez%Kouzy%NULL%0,                  Joseph%Abi Jaoude%NULL%1,                  Afif%Kraitem%NULL%1,                  Molly B%El Alam%NULL%1,                  Basil%Karam%NULL%1,                  Elio%Adib%NULL%1,                  Jabra%Zarka%NULL%1,                  Cindy%Traboulsi%NULL%1,                  Elie W%Akl%NULL%1,                  Khalil%Baddour%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1709,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -1690,7 +1738,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -1719,7 +1767,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -1835,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="E8" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1864,7 +1912,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1893,7 +1941,7 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1922,7 +1970,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -1951,7 +1999,7 @@
         <v>260</v>
       </c>
       <c r="E12" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -1980,7 +2028,7 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
@@ -2038,7 +2086,7 @@
         <v>194</v>
       </c>
       <c r="E15" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -2067,7 +2115,7 @@
         <v>264</v>
       </c>
       <c r="E16" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="F16" t="s">
         <v>77</v>
@@ -2096,7 +2144,7 @@
         <v>199</v>
       </c>
       <c r="E17" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -2125,7 +2173,7 @@
         <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -2154,7 +2202,7 @@
         <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="F19" t="s">
         <v>81</v>
@@ -2183,7 +2231,7 @@
         <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="F20" t="s">
         <v>86</v>
@@ -2212,7 +2260,7 @@
         <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="F21" t="s">
         <v>91</v>

--- a/Covid_19_Dataset_and_References/References/53.xlsx
+++ b/Covid_19_Dataset_and_References/References/53.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2794" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="390">
   <si>
     <t>Doi</t>
   </si>
@@ -1362,6 +1362,88 @@
   </si>
   <si>
     <t>[Alexander%Muacevic%NULL%0,                  John R%Adler%NULL%0,                  Ramez%Kouzy%NULL%2,                  Ramez%Kouzy%NULL%0,                  Joseph%Abi Jaoude%NULL%1,                  Afif%Kraitem%NULL%1,                  Molly B%El Alam%NULL%1,                  Basil%Karam%NULL%1,                  Elio%Adib%NULL%1,                  Jabra%Zarka%NULL%1,                  Cindy%Traboulsi%NULL%1,                  Elie W%Akl%NULL%1,                  Khalil%Baddour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sapna R.%Kudchadkar%NULL%1,                   Christopher L.%Carroll%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Sohaib R%Rufai%sohaibrufai@gmail.com%1,                   Catey%Bunce%Catey.bunce@kcl.ac.uk%2,                   Catey%Bunce%Catey.bunce@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%2,                   Kamal%Al Nasr%NULL%2,                   Kamal%Al Nasr%NULL%0,                   Ross%Gore%NULL%1,                   Abdullah%Wahbeh%NULL%2,                   Abdullah%Wahbeh%NULL%0,                   Tareq%Nasralah%t.nasralah@northeastern.edu%2,                   Tareq%Nasralah%t.nasralah@northeastern.edu%0,                   Mohammad%Al-Ramahi%NULL%2,                   Mohammad%Al-Ramahi%NULL%0,                   Omar%El-Gayar%NULL%2,                   Omar%El-Gayar%NULL%0]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>"Use of Social Media among Intern Doctors in Regards to Covid-19"</t>
+  </si>
+  <si>
+    <t>"Background: The world is not just fighting a pandemic of COVID-19, but also tackling infodemic due to the rampant spread of misinformation and rumor about COVID-19 across various online and printed media.
+ Social media is an easy, quick, and cost-effective source of information but its contents are not regulated.
+ Users also usually don't verify information on social media on authentic sites.
+ So, misinformation spreads at a exponential rate.
+ Intern doctors as young physician should have scientific knowledge of disease and not be misled by rumors.
+ Also, health-related information shared by health professionals owes greater credibility to the public.
+ This study aims to explore whether or not intern doctors are using social media rationally in regards to COVID-19.&amp;#x0D;\nMethods: This is a cross-sectional, mixed-method study carried out among medical and dental interns of KIST Medical College and Teaching Hospital.
+ Data was collected with the help of a self-administered semi-structured questionnaire after pretesting.
+ Two Focus group discussions were conducted to gain in- depth information.
+&amp;#x0D;\nFindings: 65 % percent of the intern doctors most often used social media to gain information about COVID-19 out of which 87.1 % used Facebook more often.
+\u00a0 Around 46 % just read the full title of news appearing in social media while only 32.9 % read the full text.
+\u00a0 36 % share the news just by seeing the title.
+ Nearly 35 % of intern doctors check the authenticity of information on social media by verifying it via experts or from authentic sources.
+&amp;#x0D;\nConclusion: Rational use of social media is a must to combat the epidemic of COVID 19. Health professionals including young doctors like interns should focus on scientific and evidence-based information and should use social media rationally both for acquisition and dissemination of information on COVID-19.</t>
+  </si>
+  <si>
+    <t>[Prativa%Subedi%xref no email%1, Bibechan%Thapa%xref no email%1, Aakriti%Pandey%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-16</t>
+  </si>
+  <si>
+    <t>[Amy%Chesser%xref no email%1,            Amy%Drassen Ham%xref no email%1,            Nikki%Keene Woods%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Gebbia%NULL%1,                   Dario%Piazza%NULL%1,                   Maria Rosaria%Valerio%NULL%1,                   Nicolò%Borsellino%NULL%1,                   Alberto%Firenze%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jesus-Angel%P\u00e9rez-Dasilva%xref no email%1,            Koldobika%Meso-Ayerdi%xref no email%1,            Terese%Mendiguren-Galdosp\u00edn%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Maria Renee%Jimenez‐Sotomayor%NULL%1,                   Carolina%Gomez‐Moreno%NULL%1,                   Enrique%Soto‐Perez‐de‐Celis%enrique.sotop@incmnsz.mx%1]</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,                   Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,                   Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,                   Stan%Innes%S.Innes@murdoch.edu.au%1,                   J. Keith%Simpson%k.simpson@murdoch.edu.au%1,                   Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                   Jon-Patrick%Allem%NULL%2,                   Jon-Patrick%Allem%NULL%0,                   Richard%Zowalla%NULL%1,                   Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%2,                   Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%0,                   Josep%Vidal-Alaball%NULL%2,                   Josep%Vidal-Alaball%NULL%0,                   Joseph%Downing%NULL%2,                   Joseph%Downing%NULL%0,                   Francesc%López Seguí%NULL%2,                   Francesc%López Seguí%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Francisco%Morinha%xref no email%1,            Paula%Magalh\u00e3es%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Servet%Aker%servetaker@gmail.com%1,                   Özlem%Mıdık%NULL%2,                   Özlem%Mıdık%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cristina M%Pulido%xref no email%1,            Beatriz%Villarejo-Carballido%xref no email%1,            Gisela%Redondo-Sama%xref no email%1,            Aitor%G\u00f3mez%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Flecha%Ram\u00f3n%coreGivesNoEmail%1,                  Guo%Mengna%coreGivesNoEmail%1,                  Pulido%Rodr\u00edguez Cristina%coreGivesNoEmail%1,                  Ramis%Salas Maria del Mar%coreGivesNoEmail%1,                  Redondo%Sama Gisela%coreGivesNoEmail%1,                  Villarejo%Carballido Beatriz%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Bahar%Yuksel%baharyl86@gmail.com%1,                   Kubra%Cakmak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                   Nazakat%Hamassed%NULL%2,                   Nazakat%Hamassed%NULL%0,                   Hardawan%Kakashekh%NULL%1,                   Muhammad%Saud%NULL%1,                   Mohammad Amin%Bahrami%NULL%1,                   Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%2,                   Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%0,                   Hersh Rasool%Murad%NULL%2,                   Hersh Rasool%Murad%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                   John R%Adler%NULL%0,                   Ramez%Kouzy%NULL%2,                   Ramez%Kouzy%NULL%0,                   Joseph%Abi Jaoude%NULL%1,                   Afif%Kraitem%NULL%1,                   Molly B%El Alam%NULL%1,                   Basil%Karam%NULL%1,                   Elio%Adib%NULL%1,                   Jabra%Zarka%NULL%1,                   Cindy%Traboulsi%NULL%1,                   Elie W%Akl%NULL%1,                   Khalil%Baddour%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1791,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -1721,7 +1803,7 @@
         <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3">
@@ -1738,7 +1820,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -1750,7 +1832,7 @@
         <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4">
@@ -1767,7 +1849,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -1779,7 +1861,7 @@
         <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5">
@@ -1808,7 +1890,7 @@
         <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6">
@@ -1837,7 +1919,7 @@
         <v>178</v>
       </c>
       <c r="I6" t="s">
-        <v>114</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7">
@@ -1848,22 +1930,22 @@
         <v>43953.0</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>372</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>373</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>374</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>375</v>
       </c>
       <c r="I7" t="s">
         <v>114</v>
@@ -1883,7 +1965,7 @@
         <v>180</v>
       </c>
       <c r="E8" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1895,7 +1977,7 @@
         <v>182</v>
       </c>
       <c r="I8" t="s">
-        <v>114</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9">
@@ -1912,7 +1994,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1924,7 +2006,7 @@
         <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10">
@@ -1941,7 +2023,7 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1953,7 +2035,7 @@
         <v>186</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11">
@@ -1970,7 +2052,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -1982,7 +2064,7 @@
         <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12">
@@ -1999,7 +2081,7 @@
         <v>260</v>
       </c>
       <c r="E12" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -2011,7 +2093,7 @@
         <v>68</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13">
@@ -2028,7 +2110,7 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
@@ -2040,7 +2122,7 @@
         <v>73</v>
       </c>
       <c r="I13" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14">
@@ -2069,7 +2151,7 @@
         <v>192</v>
       </c>
       <c r="I14" t="s">
-        <v>114</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15">
@@ -2086,7 +2168,7 @@
         <v>194</v>
       </c>
       <c r="E15" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -2098,7 +2180,7 @@
         <v>196</v>
       </c>
       <c r="I15" t="s">
-        <v>114</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16">
@@ -2115,7 +2197,7 @@
         <v>264</v>
       </c>
       <c r="E16" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="F16" t="s">
         <v>77</v>
@@ -2127,7 +2209,7 @@
         <v>38</v>
       </c>
       <c r="I16" t="s">
-        <v>118</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17">
@@ -2144,7 +2226,7 @@
         <v>199</v>
       </c>
       <c r="E17" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -2156,7 +2238,7 @@
         <v>178</v>
       </c>
       <c r="I17" t="s">
-        <v>114</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18">
@@ -2173,7 +2255,7 @@
         <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -2185,7 +2267,7 @@
         <v>38</v>
       </c>
       <c r="I18" t="s">
-        <v>114</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19">
@@ -2202,7 +2284,7 @@
         <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="F19" t="s">
         <v>81</v>
@@ -2214,7 +2296,7 @@
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20">
@@ -2231,7 +2313,7 @@
         <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="F20" t="s">
         <v>86</v>
@@ -2243,7 +2325,7 @@
         <v>87</v>
       </c>
       <c r="I20" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21">
@@ -2260,7 +2342,7 @@
         <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="F21" t="s">
         <v>91</v>
@@ -2272,7 +2354,7 @@
         <v>92</v>
       </c>
       <c r="I21" t="s">
-        <v>111</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/53.xlsx
+++ b/Covid_19_Dataset_and_References/References/53.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="407">
   <si>
     <t>Doi</t>
   </si>
@@ -1444,6 +1444,57 @@
   </si>
   <si>
     <t>[Alexander%Muacevic%NULL%0,                   John R%Adler%NULL%0,                   Ramez%Kouzy%NULL%2,                   Ramez%Kouzy%NULL%0,                   Joseph%Abi Jaoude%NULL%1,                   Afif%Kraitem%NULL%1,                   Molly B%El Alam%NULL%1,                   Basil%Karam%NULL%1,                   Elio%Adib%NULL%1,                   Jabra%Zarka%NULL%1,                   Cindy%Traboulsi%NULL%1,                   Elie W%Akl%NULL%1,                   Khalil%Baddour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sapna R.%Kudchadkar%NULL%1,                    Christopher L.%Carroll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sohaib R%Rufai%sohaibrufai@gmail.com%1,                    Catey%Bunce%Catey.bunce@kcl.ac.uk%2,                    Catey%Bunce%Catey.bunce@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%2,                    Kamal%Al Nasr%NULL%2,                    Kamal%Al Nasr%NULL%0,                    Ross%Gore%NULL%1,                    Abdullah%Wahbeh%NULL%2,                    Abdullah%Wahbeh%NULL%0,                    Tareq%Nasralah%t.nasralah@northeastern.edu%2,                    Tareq%Nasralah%t.nasralah@northeastern.edu%0,                    Mohammad%Al-Ramahi%NULL%2,                    Mohammad%Al-Ramahi%NULL%0,                    Omar%El-Gayar%NULL%2,                    Omar%El-Gayar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Prativa%Subedi%xref no email%1,  Bibechan%Thapa%xref no email%1,  Aakriti%Pandey%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Chesser%xref no email%1,             Amy%Drassen Ham%xref no email%1,             Nikki%Keene Woods%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Gebbia%NULL%1,                    Dario%Piazza%NULL%1,                    Maria Rosaria%Valerio%NULL%1,                    Nicolò%Borsellino%NULL%1,                    Alberto%Firenze%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jesus-Angel%P\u00e9rez-Dasilva%xref no email%1,             Koldobika%Meso-Ayerdi%xref no email%1,             Terese%Mendiguren-Galdosp\u00edn%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Maria Renee%Jimenez‐Sotomayor%NULL%1,                    Carolina%Gomez‐Moreno%NULL%1,                    Enrique%Soto‐Perez‐de‐Celis%enrique.sotop@incmnsz.mx%1]</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,                    Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,                    Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,                    Stan%Innes%S.Innes@murdoch.edu.au%1,                    J. Keith%Simpson%k.simpson@murdoch.edu.au%1,                    Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                    Jon-Patrick%Allem%NULL%2,                    Jon-Patrick%Allem%NULL%0,                    Richard%Zowalla%NULL%1,                    Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%2,                    Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%0,                    Josep%Vidal-Alaball%NULL%2,                    Josep%Vidal-Alaball%NULL%0,                    Joseph%Downing%NULL%2,                    Joseph%Downing%NULL%0,                    Francesc%López Seguí%NULL%2,                    Francesc%López Seguí%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Francisco%Morinha%xref no email%1,             Paula%Magalh\u00e3es%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Servet%Aker%servetaker@gmail.com%1,                    Özlem%Mıdık%NULL%2,                    Özlem%Mıdık%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cristina M%Pulido%xref no email%1,             Beatriz%Villarejo-Carballido%xref no email%1,             Gisela%Redondo-Sama%xref no email%1,             Aitor%G\u00f3mez%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Flecha%Ram\u00f3n%coreGivesNoEmail%1,                   Guo%Mengna%coreGivesNoEmail%1,                   Pulido%Rodr\u00edguez Cristina%coreGivesNoEmail%1,                   Ramis%Salas Maria del Mar%coreGivesNoEmail%1,                   Redondo%Sama Gisela%coreGivesNoEmail%1,                   Villarejo%Carballido Beatriz%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Bahar%Yuksel%baharyl86@gmail.com%1,                    Kubra%Cakmak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                    Nazakat%Hamassed%NULL%2,                    Nazakat%Hamassed%NULL%0,                    Hardawan%Kakashekh%NULL%1,                    Muhammad%Saud%NULL%1,                    Mohammad Amin%Bahrami%NULL%1,                    Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%2,                    Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%0,                    Hersh Rasool%Murad%NULL%2,                    Hersh Rasool%Murad%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                    John R%Adler%NULL%0,                    Ramez%Kouzy%NULL%2,                    Ramez%Kouzy%NULL%0,                    Joseph%Abi Jaoude%NULL%1,                    Afif%Kraitem%NULL%1,                    Molly B%El Alam%NULL%1,                    Basil%Karam%NULL%1,                    Elio%Adib%NULL%1,                    Jabra%Zarka%NULL%1,                    Cindy%Traboulsi%NULL%1,                    Elie W%Akl%NULL%1,                    Khalil%Baddour%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1791,7 +1842,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -1820,7 +1871,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -1849,7 +1900,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -1936,7 +1987,7 @@
         <v>373</v>
       </c>
       <c r="E7" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1965,7 +2016,7 @@
         <v>180</v>
       </c>
       <c r="E8" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1994,7 +2045,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -2023,7 +2074,7 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2052,7 +2103,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -2081,7 +2132,7 @@
         <v>260</v>
       </c>
       <c r="E12" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -2110,7 +2161,7 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
@@ -2168,7 +2219,7 @@
         <v>194</v>
       </c>
       <c r="E15" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -2197,7 +2248,7 @@
         <v>264</v>
       </c>
       <c r="E16" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="F16" t="s">
         <v>77</v>
@@ -2226,7 +2277,7 @@
         <v>199</v>
       </c>
       <c r="E17" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -2255,7 +2306,7 @@
         <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -2284,7 +2335,7 @@
         <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="F19" t="s">
         <v>81</v>
@@ -2313,7 +2364,7 @@
         <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="F20" t="s">
         <v>86</v>
@@ -2342,7 +2393,7 @@
         <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="F21" t="s">
         <v>91</v>

--- a/Covid_19_Dataset_and_References/References/53.xlsx
+++ b/Covid_19_Dataset_and_References/References/53.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3928" uniqueCount="483">
   <si>
     <t>Doi</t>
   </si>
@@ -1495,6 +1495,234 @@
   </si>
   <si>
     <t>[Alexander%Muacevic%NULL%0,                    John R%Adler%NULL%0,                    Ramez%Kouzy%NULL%2,                    Ramez%Kouzy%NULL%0,                    Joseph%Abi Jaoude%NULL%1,                    Afif%Kraitem%NULL%1,                    Molly B%El Alam%NULL%1,                    Basil%Karam%NULL%1,                    Elio%Adib%NULL%1,                    Jabra%Zarka%NULL%1,                    Cindy%Traboulsi%NULL%1,                    Elie W%Akl%NULL%1,                    Khalil%Baddour%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Sapna R.%Kudchadkar%NULL%1,                     Christopher L.%Carroll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sohaib R%Rufai%sohaibrufai@gmail.com%1,                     Catey%Bunce%Catey.bunce@kcl.ac.uk%2,                     Catey%Bunce%Catey.bunce@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%2,                     Kamal%Al Nasr%NULL%2,                     Kamal%Al Nasr%NULL%0,                     Ross%Gore%NULL%1,                     Abdullah%Wahbeh%NULL%2,                     Abdullah%Wahbeh%NULL%0,                     Tareq%Nasralah%t.nasralah@northeastern.edu%2,                     Tareq%Nasralah%t.nasralah@northeastern.edu%0,                     Mohammad%Al-Ramahi%NULL%2,                     Mohammad%Al-Ramahi%NULL%0,                     Omar%El-Gayar%NULL%2,                     Omar%El-Gayar%NULL%0]</t>
+  </si>
+  <si>
+    <t>2023-06-04</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Ediciones Profesionales de la Informacion SL</t>
+  </si>
+  <si>
+    <t>[Prativa%Subedi%xref no email%0, Bibechan%Thapa%xref no email%1, Aakriti%Pandey%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Nirvana Psychosocial Care Center and Research Institute</t>
+  </si>
+  <si>
+    <t>[Amy%Chesser%xref no email%0, Amy%Drassen Ham%xref no email%1, Nikki%Keene Woods%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-01</t>
+  </si>
+  <si>
+    <t>PUBLISHER: SAGE Publications</t>
+  </si>
+  <si>
+    <t>[Vittorio%Gebbia%NULL%1,                     Dario%Piazza%NULL%1,                     Maria Rosaria%Valerio%NULL%1,                     Nicolò%Borsellino%NULL%1,                     Alberto%Firenze%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jesus-Angel%P\u00e9rez-Dasilva%xref no email%0, Koldobika%Meso-Ayerdi%xref no email%1, Terese%Mendiguren-Galdosp\u00edn%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Maria Renee%Jimenez‐Sotomayor%NULL%1,                     Carolina%Gomez‐Moreno%NULL%1,                     Enrique%Soto‐Perez‐de‐Celis%enrique.sotop@incmnsz.mx%1]</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,                     Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,                     Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,                     Stan%Innes%S.Innes@murdoch.edu.au%1,                     J. Keith%Simpson%k.simpson@murdoch.edu.au%1,                     Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                     Jon-Patrick%Allem%NULL%2,                     Jon-Patrick%Allem%NULL%0,                     Richard%Zowalla%NULL%1,                     Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%2,                     Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%0,                     Josep%Vidal-Alaball%NULL%2,                     Josep%Vidal-Alaball%NULL%0,                     Joseph%Downing%NULL%2,                     Joseph%Downing%NULL%0,                     Francesc%López Seguí%NULL%2,                     Francesc%López Seguí%NULL%0]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: EPRA JOURNALS</t>
+  </si>
+  <si>
+    <t>[Francisco%Morinha%xref no email%0, Paula%Magalh\u00e3es%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Inishmore Laser Scientific Publishing Ltd</t>
+  </si>
+  <si>
+    <t>[Servet%Aker%servetaker@gmail.com%1,                     Özlem%Mıdık%NULL%2,                     Özlem%Mıdık%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cristina M%Pulido%xref no email%0, Beatriz%Villarejo-Carballido%xref no email%1, Gisela%Redondo-Sama%xref no email%1, Aitor%G\u00f3mez%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Flecha%Ram\u00f3n%coreGivesNoEmail%1,                    Guo%Mengna%coreGivesNoEmail%1,                    Pulido%Rodr\u00edguez Cristina%coreGivesNoEmail%1,                    Ramis%Salas Maria del Mar%coreGivesNoEmail%1,                    Redondo%Sama Gisela%coreGivesNoEmail%1,                    Villarejo%Carballido Beatriz%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Bahar%Yuksel%baharyl86@gmail.com%1,                     Kubra%Cakmak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                     Nazakat%Hamassed%NULL%2,                     Nazakat%Hamassed%NULL%0,                     Hardawan%Kakashekh%NULL%1,                     Muhammad%Saud%NULL%1,                     Mohammad Amin%Bahrami%NULL%1,                     Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%2,                     Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%0,                     Hersh Rasool%Murad%NULL%2,                     Hersh Rasool%Murad%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                     John R%Adler%NULL%0,                     Ramez%Kouzy%NULL%2,                     Ramez%Kouzy%NULL%0,                     Joseph%Abi Jaoude%NULL%1,                     Afif%Kraitem%NULL%1,                     Molly B%El Alam%NULL%1,                     Basil%Karam%NULL%1,                     Elio%Adib%NULL%1,                     Jabra%Zarka%NULL%1,                     Cindy%Traboulsi%NULL%1,                     Elie W%Akl%NULL%1,                     Khalil%Baddour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sapna R.%Kudchadkar%NULL%1,                      Christopher L.%Carroll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sohaib R%Rufai%sohaibrufai@gmail.com%1,                      Catey%Bunce%Catey.bunce@kcl.ac.uk%2,                      Catey%Bunce%Catey.bunce@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%2,                      Kamal%Al Nasr%NULL%2,                      Kamal%Al Nasr%NULL%0,                      Ross%Gore%NULL%1,                      Abdullah%Wahbeh%NULL%2,                      Abdullah%Wahbeh%NULL%0,                      Tareq%Nasralah%t.nasralah@northeastern.edu%2,                      Tareq%Nasralah%t.nasralah@northeastern.edu%0,                      Mohammad%Al-Ramahi%NULL%2,                      Mohammad%Al-Ramahi%NULL%0,                      Omar%El-Gayar%NULL%2,                      Omar%El-Gayar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Gebbia%NULL%1,                      Dario%Piazza%NULL%1,                      Maria Rosaria%Valerio%NULL%1,                      Nicolò%Borsellino%NULL%1,                      Alberto%Firenze%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Renee%Jimenez‐Sotomayor%NULL%1,                      Carolina%Gomez‐Moreno%NULL%1,                      Enrique%Soto‐Perez‐de‐Celis%enrique.sotop@incmnsz.mx%1]</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,                      Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,                      Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,                      Stan%Innes%S.Innes@murdoch.edu.au%1,                      J. Keith%Simpson%k.simpson@murdoch.edu.au%1,                      Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                      Jon-Patrick%Allem%NULL%2,                      Jon-Patrick%Allem%NULL%0,                      Richard%Zowalla%NULL%1,                      Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%2,                      Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%0,                      Josep%Vidal-Alaball%NULL%2,                      Josep%Vidal-Alaball%NULL%0,                      Joseph%Downing%NULL%2,                      Joseph%Downing%NULL%0,                      Francesc%López Seguí%NULL%2,                      Francesc%López Seguí%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Servet%Aker%servetaker@gmail.com%1,                      Özlem%Mıdık%NULL%2,                      Özlem%Mıdık%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Flecha%Ram\u00f3n%coreGivesNoEmail%1,                     Guo%Mengna%coreGivesNoEmail%1,                     Pulido%Rodr\u00edguez Cristina%coreGivesNoEmail%1,                     Ramis%Salas Maria del Mar%coreGivesNoEmail%1,                     Redondo%Sama Gisela%coreGivesNoEmail%1,                     Villarejo%Carballido Beatriz%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Bahar%Yuksel%baharyl86@gmail.com%1,                      Kubra%Cakmak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                      Nazakat%Hamassed%NULL%2,                      Nazakat%Hamassed%NULL%0,                      Hardawan%Kakashekh%NULL%1,                      Muhammad%Saud%NULL%1,                      Mohammad Amin%Bahrami%NULL%1,                      Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%2,                      Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%0,                      Hersh Rasool%Murad%NULL%2,                      Hersh Rasool%Murad%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                      John R%Adler%NULL%0,                      Ramez%Kouzy%NULL%2,                      Ramez%Kouzy%NULL%0,                      Joseph%Abi Jaoude%NULL%1,                      Afif%Kraitem%NULL%1,                      Molly B%El Alam%NULL%1,                      Basil%Karam%NULL%1,                      Elio%Adib%NULL%1,                      Jabra%Zarka%NULL%1,                      Cindy%Traboulsi%NULL%1,                      Elie W%Akl%NULL%1,                      Khalil%Baddour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sapna R.%Kudchadkar%NULL%1,                       Christopher L.%Carroll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sohaib R%Rufai%sohaibrufai@gmail.com%1,                       Catey%Bunce%Catey.bunce@kcl.ac.uk%2,                       Catey%Bunce%Catey.bunce@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%2,                       Kamal%Al Nasr%NULL%2,                       Kamal%Al Nasr%NULL%0,                       Ross%Gore%NULL%1,                       Abdullah%Wahbeh%NULL%2,                       Abdullah%Wahbeh%NULL%0,                       Tareq%Nasralah%t.nasralah@northeastern.edu%2,                       Tareq%Nasralah%t.nasralah@northeastern.edu%0,                       Mohammad%Al-Ramahi%NULL%2,                       Mohammad%Al-Ramahi%NULL%0,                       Omar%El-Gayar%NULL%2,                       Omar%El-Gayar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Prativa%Subedi%xref no email%1,   Bibechan%Thapa%xref no email%1,   Aakriti%Pandey%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Gebbia%NULL%1,                       Dario%Piazza%NULL%1,                       Maria Rosaria%Valerio%NULL%1,                       Nicolò%Borsellino%NULL%1,                       Alberto%Firenze%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Renee%Jimenez‐Sotomayor%NULL%1,                       Carolina%Gomez‐Moreno%NULL%1,                       Enrique%Soto‐Perez‐de‐Celis%enrique.sotop@incmnsz.mx%1]</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,                       Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,                       Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,                       Stan%Innes%S.Innes@murdoch.edu.au%1,                       J. Keith%Simpson%k.simpson@murdoch.edu.au%1,                       Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                       Jon-Patrick%Allem%NULL%2,                       Jon-Patrick%Allem%NULL%0,                       Richard%Zowalla%NULL%1,                       Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%2,                       Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%0,                       Josep%Vidal-Alaball%NULL%2,                       Josep%Vidal-Alaball%NULL%0,                       Joseph%Downing%NULL%2,                       Joseph%Downing%NULL%0,                       Francesc%López Seguí%NULL%2,                       Francesc%López Seguí%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Servet%Aker%servetaker@gmail.com%1,                       Özlem%Mıdık%NULL%2,                       Özlem%Mıdık%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Flecha%Ram\u00f3n%coreGivesNoEmail%1,                      Guo%Mengna%coreGivesNoEmail%1,                      Pulido%Rodr\u00edguez Cristina%coreGivesNoEmail%1,                      Ramis%Salas Maria del Mar%coreGivesNoEmail%1,                      Redondo%Sama Gisela%coreGivesNoEmail%1,                      Villarejo%Carballido Beatriz%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Bahar%Yuksel%baharyl86@gmail.com%1,                       Kubra%Cakmak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                       Nazakat%Hamassed%NULL%2,                       Nazakat%Hamassed%NULL%0,                       Hardawan%Kakashekh%NULL%1,                       Muhammad%Saud%NULL%1,                       Mohammad Amin%Bahrami%NULL%1,                       Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%2,                       Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%0,                       Hersh Rasool%Murad%NULL%2,                       Hersh Rasool%Murad%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                       John R%Adler%NULL%0,                       Ramez%Kouzy%NULL%2,                       Ramez%Kouzy%NULL%0,                       Joseph%Abi Jaoude%NULL%1,                       Afif%Kraitem%NULL%1,                       Molly B%El Alam%NULL%1,                       Basil%Karam%NULL%1,                       Elio%Adib%NULL%1,                       Jabra%Zarka%NULL%1,                       Cindy%Traboulsi%NULL%1,                       Elie W%Akl%NULL%1,                       Khalil%Baddour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sapna R.%Kudchadkar%NULL%1,                        Christopher L.%Carroll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sohaib R%Rufai%sohaibrufai@gmail.com%1,                        Catey%Bunce%Catey.bunce@kcl.ac.uk%2,                        Catey%Bunce%Catey.bunce@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%2,                        Kamal%Al Nasr%NULL%2,                        Kamal%Al Nasr%NULL%0,                        Ross%Gore%NULL%1,                        Abdullah%Wahbeh%NULL%2,                        Abdullah%Wahbeh%NULL%0,                        Tareq%Nasralah%t.nasralah@northeastern.edu%2,                        Tareq%Nasralah%t.nasralah@northeastern.edu%0,                        Mohammad%Al-Ramahi%NULL%2,                        Mohammad%Al-Ramahi%NULL%0,                        Omar%El-Gayar%NULL%2,                        Omar%El-Gayar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Prativa%Subedi%xref no email%1,    Bibechan%Thapa%xref no email%1,    Aakriti%Pandey%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Gebbia%NULL%1,                        Dario%Piazza%NULL%1,                        Maria Rosaria%Valerio%NULL%1,                        Nicolò%Borsellino%NULL%1,                        Alberto%Firenze%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Renee%Jimenez‐Sotomayor%NULL%1,                        Carolina%Gomez‐Moreno%NULL%1,                        Enrique%Soto‐Perez‐de‐Celis%enrique.sotop@incmnsz.mx%1]</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,                        Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,                        Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,                        Stan%Innes%S.Innes@murdoch.edu.au%1,                        J. Keith%Simpson%k.simpson@murdoch.edu.au%1,                        Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                        Jon-Patrick%Allem%NULL%2,                        Jon-Patrick%Allem%NULL%0,                        Richard%Zowalla%NULL%1,                        Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%2,                        Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%0,                        Josep%Vidal-Alaball%NULL%2,                        Josep%Vidal-Alaball%NULL%0,                        Joseph%Downing%NULL%2,                        Joseph%Downing%NULL%0,                        Francesc%López Seguí%NULL%2,                        Francesc%López Seguí%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Servet%Aker%servetaker@gmail.com%1,                        Özlem%Mıdık%NULL%2,                        Özlem%Mıdık%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Flecha%Ram\u00f3n%coreGivesNoEmail%1,                       Guo%Mengna%coreGivesNoEmail%1,                       Pulido%Rodr\u00edguez Cristina%coreGivesNoEmail%1,                       Ramis%Salas Maria del Mar%coreGivesNoEmail%1,                       Redondo%Sama Gisela%coreGivesNoEmail%1,                       Villarejo%Carballido Beatriz%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Bahar%Yuksel%baharyl86@gmail.com%1,                        Kubra%Cakmak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                        Nazakat%Hamassed%NULL%2,                        Nazakat%Hamassed%NULL%0,                        Hardawan%Kakashekh%NULL%1,                        Muhammad%Saud%NULL%1,                        Mohammad Amin%Bahrami%NULL%1,                        Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%2,                        Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%0,                        Hersh Rasool%Murad%NULL%2,                        Hersh Rasool%Murad%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                        John R%Adler%NULL%0,                        Ramez%Kouzy%NULL%2,                        Ramez%Kouzy%NULL%0,                        Joseph%Abi Jaoude%NULL%1,                        Afif%Kraitem%NULL%1,                        Molly B%El Alam%NULL%1,                        Basil%Karam%NULL%1,                        Elio%Adib%NULL%1,                        Jabra%Zarka%NULL%1,                        Cindy%Traboulsi%NULL%1,                        Elie W%Akl%NULL%1,                        Khalil%Baddour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sapna R.%Kudchadkar%NULL%1,                         Christopher L.%Carroll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sohaib R%Rufai%sohaibrufai@gmail.com%1,                         Catey%Bunce%Catey.bunce@kcl.ac.uk%2,                         Catey%Bunce%Catey.bunce@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%2,                         Kamal%Al Nasr%NULL%2,                         Kamal%Al Nasr%NULL%0,                         Ross%Gore%NULL%1,                         Abdullah%Wahbeh%NULL%2,                         Abdullah%Wahbeh%NULL%0,                         Tareq%Nasralah%t.nasralah@northeastern.edu%2,                         Tareq%Nasralah%t.nasralah@northeastern.edu%0,                         Mohammad%Al-Ramahi%NULL%2,                         Mohammad%Al-Ramahi%NULL%0,                         Omar%El-Gayar%NULL%2,                         Omar%El-Gayar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Prativa%Subedi%xref no email%1,     Bibechan%Thapa%xref no email%1,     Aakriti%Pandey%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Gebbia%NULL%1,                         Dario%Piazza%NULL%1,                         Maria Rosaria%Valerio%NULL%1,                         Nicolò%Borsellino%NULL%1,                         Alberto%Firenze%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Renee%Jimenez‐Sotomayor%NULL%1,                         Carolina%Gomez‐Moreno%NULL%1,                         Enrique%Soto‐Perez‐de‐Celis%enrique.sotop@incmnsz.mx%1]</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,                         Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,                         Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,                         Stan%Innes%S.Innes@murdoch.edu.au%1,                         J. Keith%Simpson%k.simpson@murdoch.edu.au%1,                         Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                         Jon-Patrick%Allem%NULL%2,                         Jon-Patrick%Allem%NULL%0,                         Richard%Zowalla%NULL%1,                         Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%2,                         Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%0,                         Josep%Vidal-Alaball%NULL%2,                         Josep%Vidal-Alaball%NULL%0,                         Joseph%Downing%NULL%2,                         Joseph%Downing%NULL%0,                         Francesc%López Seguí%NULL%2,                         Francesc%López Seguí%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Servet%Aker%servetaker@gmail.com%1,                         Özlem%Mıdık%NULL%2,                         Özlem%Mıdık%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Flecha%Ram\u00f3n%coreGivesNoEmail%1,                        Guo%Mengna%coreGivesNoEmail%1,                        Pulido%Rodr\u00edguez Cristina%coreGivesNoEmail%1,                        Ramis%Salas Maria del Mar%coreGivesNoEmail%1,                        Redondo%Sama Gisela%coreGivesNoEmail%1,                        Villarejo%Carballido Beatriz%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Bahar%Yuksel%baharyl86@gmail.com%1,                         Kubra%Cakmak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                         Nazakat%Hamassed%NULL%2,                         Nazakat%Hamassed%NULL%0,                         Hardawan%Kakashekh%NULL%1,                         Muhammad%Saud%NULL%1,                         Mohammad Amin%Bahrami%NULL%1,                         Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%2,                         Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%0,                         Hersh Rasool%Murad%NULL%2,                         Hersh Rasool%Murad%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                         John R%Adler%NULL%0,                         Ramez%Kouzy%NULL%2,                         Ramez%Kouzy%NULL%0,                         Joseph%Abi Jaoude%NULL%1,                         Afif%Kraitem%NULL%1,                         Molly B%El Alam%NULL%1,                         Basil%Karam%NULL%1,                         Elio%Adib%NULL%1,                         Jabra%Zarka%NULL%1,                         Cindy%Traboulsi%NULL%1,                         Elie W%Akl%NULL%1,                         Khalil%Baddour%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1827,6 +2055,9 @@
       <c r="I1" t="s">
         <v>109</v>
       </c>
+      <c r="J1" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1842,7 +2073,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -1855,6 +2086,9 @@
       </c>
       <c r="I2" t="s">
         <v>368</v>
+      </c>
+      <c r="J2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="3">
@@ -1871,7 +2105,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>391</v>
+        <v>471</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -1884,6 +2118,9 @@
       </c>
       <c r="I3" t="s">
         <v>368</v>
+      </c>
+      <c r="J3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4">
@@ -1900,7 +2137,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>392</v>
+        <v>472</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -1913,6 +2150,9 @@
       </c>
       <c r="I4" t="s">
         <v>368</v>
+      </c>
+      <c r="J4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="5">
@@ -1943,6 +2183,9 @@
       <c r="I5" t="s">
         <v>368</v>
       </c>
+      <c r="J5" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -1967,10 +2210,13 @@
         <v>177</v>
       </c>
       <c r="H6" t="s">
-        <v>178</v>
+        <v>411</v>
       </c>
       <c r="I6" t="s">
-        <v>371</v>
+        <v>114</v>
+      </c>
+      <c r="J6" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="7">
@@ -1987,7 +2233,7 @@
         <v>373</v>
       </c>
       <c r="E7" t="s">
-        <v>393</v>
+        <v>473</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2000,6 +2246,9 @@
       </c>
       <c r="I7" t="s">
         <v>114</v>
+      </c>
+      <c r="J7" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="8">
@@ -2016,7 +2265,7 @@
         <v>180</v>
       </c>
       <c r="E8" t="s">
-        <v>394</v>
+        <v>256</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2025,10 +2274,13 @@
         <v>177</v>
       </c>
       <c r="H8" t="s">
-        <v>182</v>
+        <v>416</v>
       </c>
       <c r="I8" t="s">
-        <v>371</v>
+        <v>114</v>
+      </c>
+      <c r="J8" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="9">
@@ -2045,7 +2297,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>395</v>
+        <v>474</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -2058,6 +2310,9 @@
       </c>
       <c r="I9" t="s">
         <v>368</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="10">
@@ -2074,7 +2329,7 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>396</v>
+        <v>258</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2083,10 +2338,13 @@
         <v>177</v>
       </c>
       <c r="H10" t="s">
-        <v>186</v>
+        <v>416</v>
       </c>
       <c r="I10" t="s">
-        <v>371</v>
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="11">
@@ -2103,7 +2361,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>397</v>
+        <v>475</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -2116,6 +2374,9 @@
       </c>
       <c r="I11" t="s">
         <v>368</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="12">
@@ -2132,7 +2393,7 @@
         <v>260</v>
       </c>
       <c r="E12" t="s">
-        <v>398</v>
+        <v>476</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -2145,6 +2406,9 @@
       </c>
       <c r="I12" t="s">
         <v>381</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="13">
@@ -2161,7 +2425,7 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>399</v>
+        <v>477</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
@@ -2174,6 +2438,9 @@
       </c>
       <c r="I13" t="s">
         <v>368</v>
+      </c>
+      <c r="J13" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="14">
@@ -2202,7 +2469,10 @@
         <v>192</v>
       </c>
       <c r="I14" t="s">
-        <v>371</v>
+        <v>114</v>
+      </c>
+      <c r="J14" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="15">
@@ -2219,7 +2489,7 @@
         <v>194</v>
       </c>
       <c r="E15" t="s">
-        <v>400</v>
+        <v>263</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -2231,7 +2501,10 @@
         <v>196</v>
       </c>
       <c r="I15" t="s">
-        <v>371</v>
+        <v>114</v>
+      </c>
+      <c r="J15" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="16">
@@ -2248,7 +2521,7 @@
         <v>264</v>
       </c>
       <c r="E16" t="s">
-        <v>401</v>
+        <v>478</v>
       </c>
       <c r="F16" t="s">
         <v>77</v>
@@ -2261,6 +2534,9 @@
       </c>
       <c r="I16" t="s">
         <v>381</v>
+      </c>
+      <c r="J16" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="17">
@@ -2277,7 +2553,7 @@
         <v>199</v>
       </c>
       <c r="E17" t="s">
-        <v>402</v>
+        <v>266</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -2286,10 +2562,13 @@
         <v>177</v>
       </c>
       <c r="H17" t="s">
-        <v>178</v>
+        <v>411</v>
       </c>
       <c r="I17" t="s">
-        <v>371</v>
+        <v>114</v>
+      </c>
+      <c r="J17" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="18">
@@ -2306,7 +2585,7 @@
         <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>403</v>
+        <v>479</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -2319,6 +2598,9 @@
       </c>
       <c r="I18" t="s">
         <v>371</v>
+      </c>
+      <c r="J18" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="19">
@@ -2335,7 +2617,7 @@
         <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>404</v>
+        <v>480</v>
       </c>
       <c r="F19" t="s">
         <v>81</v>
@@ -2348,6 +2630,9 @@
       </c>
       <c r="I19" t="s">
         <v>368</v>
+      </c>
+      <c r="J19" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="20">
@@ -2364,7 +2649,7 @@
         <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>405</v>
+        <v>481</v>
       </c>
       <c r="F20" t="s">
         <v>86</v>
@@ -2377,6 +2662,9 @@
       </c>
       <c r="I20" t="s">
         <v>368</v>
+      </c>
+      <c r="J20" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="21">
@@ -2393,7 +2681,7 @@
         <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>406</v>
+        <v>482</v>
       </c>
       <c r="F21" t="s">
         <v>91</v>
@@ -2406,6 +2694,9 @@
       </c>
       <c r="I21" t="s">
         <v>368</v>
+      </c>
+      <c r="J21" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/53.xlsx
+++ b/Covid_19_Dataset_and_References/References/53.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3928" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4264" uniqueCount="509">
   <si>
     <t>Doi</t>
   </si>
@@ -1723,6 +1723,84 @@
   </si>
   <si>
     <t>[Alexander%Muacevic%NULL%0,                         John R%Adler%NULL%0,                         Ramez%Kouzy%NULL%2,                         Ramez%Kouzy%NULL%0,                         Joseph%Abi Jaoude%NULL%1,                         Afif%Kraitem%NULL%1,                         Molly B%El Alam%NULL%1,                         Basil%Karam%NULL%1,                         Elio%Adib%NULL%1,                         Jabra%Zarka%NULL%1,                         Cindy%Traboulsi%NULL%1,                         Elie W%Akl%NULL%1,                         Khalil%Baddour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sapna R.%Kudchadkar%NULL%1,                          Christopher L.%Carroll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sohaib R%Rufai%sohaibrufai@gmail.com%1,                          Catey%Bunce%Catey.bunce@kcl.ac.uk%2,                          Catey%Bunce%Catey.bunce@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%2,                          Kamal%Al Nasr%NULL%2,                          Kamal%Al Nasr%NULL%0,                          Ross%Gore%NULL%1,                          Abdullah%Wahbeh%NULL%2,                          Abdullah%Wahbeh%NULL%0,                          Tareq%Nasralah%t.nasralah@northeastern.edu%2,                          Tareq%Nasralah%t.nasralah@northeastern.edu%0,                          Mohammad%Al-Ramahi%NULL%2,                          Mohammad%Al-Ramahi%NULL%0,                          Omar%El-Gayar%NULL%2,                          Omar%El-Gayar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Prativa%Subedi%xref no email%1,      Bibechan%Thapa%xref no email%1,      Aakriti%Pandey%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Gebbia%NULL%1,                          Dario%Piazza%NULL%1,                          Maria Rosaria%Valerio%NULL%1,                          Nicolò%Borsellino%NULL%1,                          Alberto%Firenze%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Renee%Jimenez‐Sotomayor%NULL%1,                          Carolina%Gomez‐Moreno%NULL%1,                          Enrique%Soto‐Perez‐de‐Celis%enrique.sotop@incmnsz.mx%1]</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,                          Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,                          Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,                          Stan%Innes%S.Innes@murdoch.edu.au%1,                          J. Keith%Simpson%k.simpson@murdoch.edu.au%1,                          Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                          Jon-Patrick%Allem%NULL%2,                          Jon-Patrick%Allem%NULL%0,                          Richard%Zowalla%NULL%1,                          Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%2,                          Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%0,                          Josep%Vidal-Alaball%NULL%2,                          Josep%Vidal-Alaball%NULL%0,                          Joseph%Downing%NULL%2,                          Joseph%Downing%NULL%0,                          Francesc%López Seguí%NULL%2,                          Francesc%López Seguí%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Servet%Aker%servetaker@gmail.com%1,                          Özlem%Mıdık%NULL%2,                          Özlem%Mıdık%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Flecha%Ram\u00f3n%coreGivesNoEmail%1,                         Guo%Mengna%coreGivesNoEmail%1,                         Pulido%Rodr\u00edguez Cristina%coreGivesNoEmail%1,                         Ramis%Salas Maria del Mar%coreGivesNoEmail%1,                         Redondo%Sama Gisela%coreGivesNoEmail%1,                         Villarejo%Carballido Beatriz%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Bahar%Yuksel%baharyl86@gmail.com%1,                          Kubra%Cakmak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                          Nazakat%Hamassed%NULL%2,                          Nazakat%Hamassed%NULL%0,                          Hardawan%Kakashekh%NULL%1,                          Muhammad%Saud%NULL%1,                          Mohammad Amin%Bahrami%NULL%1,                          Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%2,                          Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%0,                          Hersh Rasool%Murad%NULL%2,                          Hersh Rasool%Murad%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                          John R%Adler%NULL%0,                          Ramez%Kouzy%NULL%2,                          Ramez%Kouzy%NULL%0,                          Joseph%Abi Jaoude%NULL%1,                          Afif%Kraitem%NULL%1,                          Molly B%El Alam%NULL%1,                          Basil%Karam%NULL%1,                          Elio%Adib%NULL%1,                          Jabra%Zarka%NULL%1,                          Cindy%Traboulsi%NULL%1,                          Elie W%Akl%NULL%1,                          Khalil%Baddour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sapna R.%Kudchadkar%NULL%1,                           Christopher L.%Carroll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sohaib R%Rufai%sohaibrufai@gmail.com%1,                           Catey%Bunce%Catey.bunce@kcl.ac.uk%2,                           Catey%Bunce%Catey.bunce@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%2,                           Kamal%Al Nasr%NULL%2,                           Kamal%Al Nasr%NULL%0,                           Ross%Gore%NULL%1,                           Abdullah%Wahbeh%NULL%2,                           Abdullah%Wahbeh%NULL%0,                           Tareq%Nasralah%t.nasralah@northeastern.edu%2,                           Tareq%Nasralah%t.nasralah@northeastern.edu%0,                           Mohammad%Al-Ramahi%NULL%2,                           Mohammad%Al-Ramahi%NULL%0,                           Omar%El-Gayar%NULL%2,                           Omar%El-Gayar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Prativa%Subedi%xref no email%1,       Bibechan%Thapa%xref no email%1,       Aakriti%Pandey%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Gebbia%NULL%1,                           Dario%Piazza%NULL%1,                           Maria Rosaria%Valerio%NULL%1,                           Nicolò%Borsellino%NULL%1,                           Alberto%Firenze%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Renee%Jimenez‐Sotomayor%NULL%1,                           Carolina%Gomez‐Moreno%NULL%1,                           Enrique%Soto‐Perez‐de‐Celis%enrique.sotop@incmnsz.mx%1]</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,                           Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,                           Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,                           Stan%Innes%S.Innes@murdoch.edu.au%1,                           J. Keith%Simpson%k.simpson@murdoch.edu.au%1,                           Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                           Jon-Patrick%Allem%NULL%2,                           Jon-Patrick%Allem%NULL%0,                           Richard%Zowalla%NULL%1,                           Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%2,                           Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%0,                           Josep%Vidal-Alaball%NULL%2,                           Josep%Vidal-Alaball%NULL%0,                           Joseph%Downing%NULL%2,                           Joseph%Downing%NULL%0,                           Francesc%López Seguí%NULL%2,                           Francesc%López Seguí%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Servet%Aker%servetaker@gmail.com%1,                           Özlem%Mıdık%NULL%2,                           Özlem%Mıdık%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Flecha%Ram\u00f3n%coreGivesNoEmail%1,                          Guo%Mengna%coreGivesNoEmail%1,                          Pulido%Rodr\u00edguez Cristina%coreGivesNoEmail%1,                          Ramis%Salas Maria del Mar%coreGivesNoEmail%1,                          Redondo%Sama Gisela%coreGivesNoEmail%1,                          Villarejo%Carballido Beatriz%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Bahar%Yuksel%baharyl86@gmail.com%1,                           Kubra%Cakmak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                           Nazakat%Hamassed%NULL%2,                           Nazakat%Hamassed%NULL%0,                           Hardawan%Kakashekh%NULL%1,                           Muhammad%Saud%NULL%1,                           Mohammad Amin%Bahrami%NULL%1,                           Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%2,                           Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%0,                           Hersh Rasool%Murad%NULL%2,                           Hersh Rasool%Murad%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                           John R%Adler%NULL%0,                           Ramez%Kouzy%NULL%2,                           Ramez%Kouzy%NULL%0,                           Joseph%Abi Jaoude%NULL%1,                           Afif%Kraitem%NULL%1,                           Molly B%El Alam%NULL%1,                           Basil%Karam%NULL%1,                           Elio%Adib%NULL%1,                           Jabra%Zarka%NULL%1,                           Cindy%Traboulsi%NULL%1,                           Elie W%Akl%NULL%1,                           Khalil%Baddour%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2073,7 +2151,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -2105,7 +2183,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -2137,7 +2215,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>472</v>
+        <v>498</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -2233,7 +2311,7 @@
         <v>373</v>
       </c>
       <c r="E7" t="s">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2265,7 +2343,7 @@
         <v>180</v>
       </c>
       <c r="E8" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2297,7 +2375,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -2329,7 +2407,7 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2361,7 +2439,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -2393,7 +2471,7 @@
         <v>260</v>
       </c>
       <c r="E12" t="s">
-        <v>476</v>
+        <v>502</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -2425,7 +2503,7 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
@@ -2489,7 +2567,7 @@
         <v>194</v>
       </c>
       <c r="E15" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -2521,7 +2599,7 @@
         <v>264</v>
       </c>
       <c r="E16" t="s">
-        <v>478</v>
+        <v>504</v>
       </c>
       <c r="F16" t="s">
         <v>77</v>
@@ -2553,7 +2631,7 @@
         <v>199</v>
       </c>
       <c r="E17" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -2585,7 +2663,7 @@
         <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>479</v>
+        <v>505</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -2617,7 +2695,7 @@
         <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>480</v>
+        <v>506</v>
       </c>
       <c r="F19" t="s">
         <v>81</v>
@@ -2649,7 +2727,7 @@
         <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>481</v>
+        <v>507</v>
       </c>
       <c r="F20" t="s">
         <v>86</v>
@@ -2681,7 +2759,7 @@
         <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="F21" t="s">
         <v>91</v>
